--- a/Data/Processing industry_fin.xlsx
+++ b/Data/Processing industry_fin.xlsx
@@ -1,17 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="28109"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aleksandr/Documents/GIT/Privatization-in-Ukraine.-1992-2015/Data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="90" windowWidth="15255" windowHeight="5385"/>
+    <workbookView xWindow="7380" yWindow="1540" windowWidth="19520" windowHeight="9300"/>
   </bookViews>
   <sheets>
     <sheet name="processing industry" sheetId="1" r:id="rId1"/>
     <sheet name="information" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -94,9 +107,6 @@
     <t>Frozen beef and veal</t>
   </si>
   <si>
-    <t>Fresh (fresh-killed) or cooled pork</t>
-  </si>
-  <si>
     <t>Frozen pork</t>
   </si>
   <si>
@@ -109,18 +119,9 @@
     <t>Sausages</t>
   </si>
   <si>
-    <t>Natural juices, including concentrated,</t>
-  </si>
-  <si>
-    <t>Blended natural juices</t>
-  </si>
-  <si>
     <t>Unrefined sunflower-seed</t>
   </si>
   <si>
-    <t>Margarine and similar products</t>
-  </si>
-  <si>
     <t>Butter</t>
   </si>
   <si>
@@ -157,19 +158,10 @@
     <t>Chocolate and other cocoa products in  briquettes, plates or bars</t>
   </si>
   <si>
-    <t>Sugar confectionery (including the white chocolate) without  cocoa content</t>
-  </si>
-  <si>
     <t>Macaroni products without filling and heat processing</t>
   </si>
   <si>
-    <t>Macaroni products with filling and heat processing or cooked by other way (dried, frozen): ravioli, dumplings etc.; couscous</t>
-  </si>
-  <si>
     <t>Cognacs</t>
-  </si>
-  <si>
-    <t>Vodka and other strong alcoholic drinks (potable spirit with the spirit content of 45.4 ab.%; spirits produced through distillation from fruit)</t>
   </si>
   <si>
     <t>Liqueurs, sweet brandy, alcoholic bitters, other alcoholic drinks,</t>
@@ -586,15 +578,36 @@
     <t xml:space="preserve">Cigarettes with tobacco or tobacco mixtures with tobaccosubstitutes
 </t>
   </si>
+  <si>
+    <t>Fresh (fresh-killed) or cooled pork</t>
+  </si>
+  <si>
+    <t>Natural juices, including concentrated</t>
+  </si>
+  <si>
+    <t>Blended natural juices</t>
+  </si>
+  <si>
+    <t>Margarine and similar products</t>
+  </si>
+  <si>
+    <t>Sugar confectionery (including the white chocolate) without cocoa content</t>
+  </si>
+  <si>
+    <t>Macaroni products with filling and heat processing or cooked by other way (dried, frozen): ravioli, dumplings etc.; couscous</t>
+  </si>
+  <si>
+    <t>Vodka and other strong alcoholic drinks (potable spirit with the spirit content of 45.4 ab.%; spirits produced through distillation from fruit)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -775,42 +788,42 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -849,14 +862,14 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -874,23 +887,23 @@
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -1069,13 +1082,18 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1113,14 +1131,14 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -1147,14 +1165,15 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -1181,9 +1200,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1356,22 +1376,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB148"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A39" sqref="A39"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="26.5703125" customWidth="1"/>
+    <col min="1" max="2" width="26.5" customWidth="1"/>
     <col min="3" max="3" width="10" customWidth="1"/>
-    <col min="4" max="23" width="9.140625" customWidth="1"/>
+    <col min="4" max="23" width="9.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="15.75">
+    <row r="1" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="52"/>
       <c r="B1" s="32" t="s">
         <v>2</v>
@@ -1455,7 +1475,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="2" spans="1:28" ht="15.75">
+    <row r="2" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="42" t="s">
         <v>19</v>
       </c>
@@ -1515,7 +1535,7 @@
         <v>50.7</v>
       </c>
     </row>
-    <row r="3" spans="1:28" ht="15.75">
+    <row r="3" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="42" t="s">
         <v>20</v>
       </c>
@@ -1575,9 +1595,9 @@
         <v>20.7</v>
       </c>
     </row>
-    <row r="4" spans="1:28" ht="15.75">
+    <row r="4" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="42" t="s">
-        <v>21</v>
+        <v>163</v>
       </c>
       <c r="B4" s="48" t="s">
         <v>3</v>
@@ -1635,9 +1655,9 @@
         <v>258</v>
       </c>
     </row>
-    <row r="5" spans="1:28" ht="15.75">
+    <row r="5" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="42" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B5" s="48" t="s">
         <v>3</v>
@@ -1695,9 +1715,9 @@
         <v>15.7</v>
       </c>
     </row>
-    <row r="6" spans="1:28" ht="15.75">
+    <row r="6" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="42" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B6" s="48" t="s">
         <v>3</v>
@@ -1755,9 +1775,9 @@
         <v>712</v>
       </c>
     </row>
-    <row r="7" spans="1:28" ht="15.75">
+    <row r="7" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="42" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B7" s="48" t="s">
         <v>3</v>
@@ -1815,9 +1835,9 @@
         <v>181</v>
       </c>
     </row>
-    <row r="8" spans="1:28" ht="15.75">
+    <row r="8" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="42" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B8" s="55" t="s">
         <v>3</v>
@@ -1901,9 +1921,9 @@
         <v>236</v>
       </c>
     </row>
-    <row r="9" spans="1:28" ht="15.75">
+    <row r="9" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="42" t="s">
-        <v>26</v>
+        <v>164</v>
       </c>
       <c r="B9" s="48" t="s">
         <v>3</v>
@@ -1961,9 +1981,9 @@
         <v>264</v>
       </c>
     </row>
-    <row r="10" spans="1:28" ht="15.75">
+    <row r="10" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="42" t="s">
-        <v>27</v>
+        <v>165</v>
       </c>
       <c r="B10" s="48" t="s">
         <v>3</v>
@@ -2021,9 +2041,9 @@
         <v>201</v>
       </c>
     </row>
-    <row r="11" spans="1:28" ht="15.75">
+    <row r="11" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="42" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B11" s="48" t="s">
         <v>3</v>
@@ -2107,7 +2127,7 @@
         <v>3715</v>
       </c>
     </row>
-    <row r="12" spans="1:28" ht="31.5">
+    <row r="12" spans="1:28" ht="32" x14ac:dyDescent="0.2">
       <c r="A12" s="53" t="s">
         <v>17</v>
       </c>
@@ -2167,9 +2187,9 @@
         <v>192</v>
       </c>
     </row>
-    <row r="13" spans="1:28" ht="15.75">
+    <row r="13" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="42" t="s">
-        <v>29</v>
+        <v>166</v>
       </c>
       <c r="B13" s="48" t="s">
         <v>3</v>
@@ -2227,9 +2247,9 @@
         <v>970</v>
       </c>
     </row>
-    <row r="14" spans="1:28" ht="15.75">
+    <row r="14" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="42" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B14" s="48" t="s">
         <v>3</v>
@@ -2287,9 +2307,9 @@
         <v>102</v>
       </c>
     </row>
-    <row r="15" spans="1:28" ht="15.75">
+    <row r="15" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="42" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B15" s="48" t="s">
         <v>3</v>
@@ -2337,9 +2357,9 @@
       <c r="AA15" s="47"/>
       <c r="AB15" s="47"/>
     </row>
-    <row r="16" spans="1:28" ht="15.75">
+    <row r="16" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="42" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B16" s="48" t="s">
         <v>3</v>
@@ -2397,9 +2417,9 @@
         <v>67.8</v>
       </c>
     </row>
-    <row r="17" spans="1:28" ht="15.75">
+    <row r="17" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="42" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B17" s="48" t="s">
         <v>3</v>
@@ -2461,9 +2481,9 @@
         <v>124</v>
       </c>
     </row>
-    <row r="18" spans="1:28" ht="15.75">
+    <row r="18" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="42" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B18" s="48" t="s">
         <v>3</v>
@@ -2521,9 +2541,9 @@
         <v>426</v>
       </c>
     </row>
-    <row r="19" spans="1:28" ht="25.5" customHeight="1">
+    <row r="19" spans="1:28" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="42" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B19" s="48" t="s">
         <v>3</v>
@@ -2585,9 +2605,9 @@
         <v>2167</v>
       </c>
     </row>
-    <row r="20" spans="1:28" ht="15.75">
+    <row r="20" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="42" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B20" s="48" t="s">
         <v>3</v>
@@ -2645,9 +2665,9 @@
         <v>347</v>
       </c>
     </row>
-    <row r="21" spans="1:28" ht="15.75">
+    <row r="21" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="42" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B21" s="48" t="s">
         <v>3</v>
@@ -2705,9 +2725,9 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="22" spans="1:28" ht="15.75">
+    <row r="22" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="42" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B22" s="48" t="s">
         <v>3</v>
@@ -2765,9 +2785,9 @@
         <v>249</v>
       </c>
     </row>
-    <row r="23" spans="1:28" ht="15.75">
+    <row r="23" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="42" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B23" s="48" t="s">
         <v>3</v>
@@ -2851,9 +2871,9 @@
         <v>1459</v>
       </c>
     </row>
-    <row r="24" spans="1:28" ht="15.75">
+    <row r="24" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="42" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B24" s="48" t="s">
         <v>3</v>
@@ -2911,9 +2931,9 @@
         <v>1459</v>
       </c>
     </row>
-    <row r="25" spans="1:28" ht="15.75">
+    <row r="25" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="42" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B25" s="48" t="s">
         <v>3</v>
@@ -2971,9 +2991,9 @@
         <v>183</v>
       </c>
     </row>
-    <row r="26" spans="1:28" ht="15.75">
+    <row r="26" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="42" t="s">
-        <v>42</v>
+        <v>167</v>
       </c>
       <c r="B26" s="48" t="s">
         <v>3</v>
@@ -3031,9 +3051,9 @@
         <v>190</v>
       </c>
     </row>
-    <row r="27" spans="1:28" ht="15.75">
+    <row r="27" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="42" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B27" s="48" t="s">
         <v>3</v>
@@ -3091,9 +3111,9 @@
         <v>89.5</v>
       </c>
     </row>
-    <row r="28" spans="1:28" ht="15.75">
+    <row r="28" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="42" t="s">
-        <v>44</v>
+        <v>168</v>
       </c>
       <c r="B28" s="48" t="s">
         <v>3</v>
@@ -3151,9 +3171,9 @@
         <v>109</v>
       </c>
     </row>
-    <row r="29" spans="1:28" ht="15.75">
+    <row r="29" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="42" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B29" s="48" t="s">
         <v>4</v>
@@ -3211,9 +3231,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:28" ht="15.75">
+    <row r="30" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="42" t="s">
-        <v>46</v>
+        <v>169</v>
       </c>
       <c r="B30" s="48" t="s">
         <v>4</v>
@@ -3271,9 +3291,9 @@
         <v>18.600000000000001</v>
       </c>
     </row>
-    <row r="31" spans="1:28" ht="15.75">
+    <row r="31" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="42" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="B31" s="48" t="s">
         <v>4</v>
@@ -3331,9 +3351,9 @@
         <v>8.6999999999999993</v>
       </c>
     </row>
-    <row r="32" spans="1:28" ht="15.75">
+    <row r="32" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="42" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="B32" s="48" t="s">
         <v>4</v>
@@ -3381,9 +3401,9 @@
       <c r="AA32" s="47"/>
       <c r="AB32" s="47"/>
     </row>
-    <row r="33" spans="1:28" ht="15.75">
+    <row r="33" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="42" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="B33" s="48" t="s">
         <v>4</v>
@@ -3445,9 +3465,9 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="34" spans="1:28" ht="15.75">
+    <row r="34" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="42" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="B34" s="48" t="s">
         <v>4</v>
@@ -3509,9 +3529,9 @@
         <v>195</v>
       </c>
     </row>
-    <row r="35" spans="1:28" ht="15.75">
+    <row r="35" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="42" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="B35" s="48" t="s">
         <v>4</v>
@@ -3569,9 +3589,9 @@
         <v>36</v>
       </c>
     </row>
-    <row r="36" spans="1:28" ht="15.75">
+    <row r="36" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="42" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="B36" s="48" t="s">
         <v>4</v>
@@ -3629,9 +3649,9 @@
         <v>72.8</v>
       </c>
     </row>
-    <row r="37" spans="1:28" ht="15.75">
+    <row r="37" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" s="42" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="B37" s="48" t="s">
         <v>4</v>
@@ -3693,9 +3713,9 @@
         <v>110</v>
       </c>
     </row>
-    <row r="38" spans="1:28" ht="63">
+    <row r="38" spans="1:28" ht="64" x14ac:dyDescent="0.2">
       <c r="A38" s="53" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="B38" s="50" t="s">
         <v>7</v>
@@ -3753,9 +3773,9 @@
         <v>92.9</v>
       </c>
     </row>
-    <row r="39" spans="1:28" ht="15.75">
+    <row r="39" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A39" s="42" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="B39" s="50" t="s">
         <v>3</v>
@@ -3813,9 +3833,9 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="40" spans="1:28" ht="15.75">
+    <row r="40" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A40" s="42" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="B40" s="50" t="s">
         <v>6</v>
@@ -3899,9 +3919,9 @@
         <v>86.3</v>
       </c>
     </row>
-    <row r="41" spans="1:28" ht="15.75">
+    <row r="41" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A41" s="42" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="B41" s="50" t="s">
         <v>5</v>
@@ -3959,9 +3979,9 @@
         <v>9.8000000000000007</v>
       </c>
     </row>
-    <row r="42" spans="1:28" ht="15.75">
+    <row r="42" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" s="42" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="B42" s="50" t="s">
         <v>6</v>
@@ -4023,9 +4043,9 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="43" spans="1:28" ht="15.75">
+    <row r="43" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A43" s="42" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="B43" s="50" t="s">
         <v>3</v>
@@ -4083,9 +4103,9 @@
         <v>19.5</v>
       </c>
     </row>
-    <row r="44" spans="1:28" ht="15.75">
+    <row r="44" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A44" s="42" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="B44" s="50" t="s">
         <v>3</v>
@@ -4133,9 +4153,9 @@
       <c r="AA44" s="12"/>
       <c r="AB44" s="12"/>
     </row>
-    <row r="45" spans="1:28" ht="15.75">
+    <row r="45" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A45" s="42" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="B45" s="50" t="s">
         <v>3</v>
@@ -4183,9 +4203,9 @@
       <c r="AA45" s="12"/>
       <c r="AB45" s="12"/>
     </row>
-    <row r="46" spans="1:28" ht="15.75">
+    <row r="46" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A46" s="42" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="B46" s="11" t="s">
         <v>8</v>
@@ -4233,9 +4253,9 @@
       <c r="AA46" s="12"/>
       <c r="AB46" s="12"/>
     </row>
-    <row r="47" spans="1:28" ht="15.75">
+    <row r="47" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" s="42" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="B47" s="11" t="s">
         <v>9</v>
@@ -4293,9 +4313,9 @@
         <v>318</v>
       </c>
     </row>
-    <row r="48" spans="1:28" ht="15.75">
+    <row r="48" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" s="42" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="B48" s="11" t="s">
         <v>9</v>
@@ -4353,9 +4373,9 @@
         <v>909</v>
       </c>
     </row>
-    <row r="49" spans="1:28" ht="15.75">
+    <row r="49" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A49" s="42" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="B49" s="11" t="s">
         <v>9</v>
@@ -4403,9 +4423,9 @@
       <c r="AA49" s="12"/>
       <c r="AB49" s="12"/>
     </row>
-    <row r="50" spans="1:28" ht="15.75">
+    <row r="50" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A50" s="42" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="B50" s="11" t="s">
         <v>9</v>
@@ -4453,9 +4473,9 @@
       <c r="AA50" s="12"/>
       <c r="AB50" s="12"/>
     </row>
-    <row r="51" spans="1:28" ht="15.75">
+    <row r="51" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A51" s="42" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="B51" s="11" t="s">
         <v>9</v>
@@ -4503,9 +4523,9 @@
       <c r="AA51" s="12"/>
       <c r="AB51" s="12"/>
     </row>
-    <row r="52" spans="1:28" ht="15.75">
+    <row r="52" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A52" s="42" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="B52" s="11" t="s">
         <v>9</v>
@@ -4553,9 +4573,9 @@
       <c r="AA52" s="12"/>
       <c r="AB52" s="12"/>
     </row>
-    <row r="53" spans="1:28" ht="15.75">
+    <row r="53" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A53" s="42" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="B53" s="11" t="s">
         <v>9</v>
@@ -4603,9 +4623,9 @@
       <c r="AA53" s="12"/>
       <c r="AB53" s="12"/>
     </row>
-    <row r="54" spans="1:28" ht="15.75">
+    <row r="54" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A54" s="42" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="B54" s="11" t="s">
         <v>9</v>
@@ -4653,9 +4673,9 @@
       <c r="AA54" s="12"/>
       <c r="AB54" s="12"/>
     </row>
-    <row r="55" spans="1:28" ht="15.75">
+    <row r="55" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A55" s="42" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="B55" s="11" t="s">
         <v>9</v>
@@ -4703,9 +4723,9 @@
       <c r="AA55" s="12"/>
       <c r="AB55" s="12"/>
     </row>
-    <row r="56" spans="1:28" ht="15.75">
+    <row r="56" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A56" s="42" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="B56" s="11" t="s">
         <v>5</v>
@@ -4753,9 +4773,9 @@
       <c r="AA56" s="12"/>
       <c r="AB56" s="12"/>
     </row>
-    <row r="57" spans="1:28" ht="15.75">
+    <row r="57" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A57" s="42" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="B57" s="11" t="s">
         <v>9</v>
@@ -4813,9 +4833,9 @@
         <v>8.1</v>
       </c>
     </row>
-    <row r="58" spans="1:28" ht="15.75">
+    <row r="58" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A58" s="42" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="B58" s="11" t="s">
         <v>8</v>
@@ -4873,9 +4893,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="59" spans="1:28" ht="15.75">
+    <row r="59" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A59" s="42" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="B59" s="11" t="s">
         <v>13</v>
@@ -4933,9 +4953,9 @@
         <v>1917</v>
       </c>
     </row>
-    <row r="60" spans="1:28" ht="15.75">
+    <row r="60" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A60" s="42" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="B60" s="11" t="s">
         <v>15</v>
@@ -4993,9 +5013,9 @@
         <v>69.099999999999994</v>
       </c>
     </row>
-    <row r="61" spans="1:28" ht="15.75">
+    <row r="61" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A61" s="42" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="B61" s="11" t="s">
         <v>13</v>
@@ -5057,12 +5077,12 @@
         <v>186</v>
       </c>
     </row>
-    <row r="62" spans="1:28" ht="25.5">
+    <row r="62" spans="1:28" ht="26" x14ac:dyDescent="0.2">
       <c r="A62" s="42" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="B62" s="11" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="C62" s="1">
         <v>1200</v>
@@ -5121,9 +5141,9 @@
         <v>1269</v>
       </c>
     </row>
-    <row r="63" spans="1:28" ht="15.75">
+    <row r="63" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A63" s="42" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="B63" s="11" t="s">
         <v>13</v>
@@ -5171,9 +5191,9 @@
       <c r="AA63" s="12"/>
       <c r="AB63" s="12"/>
     </row>
-    <row r="64" spans="1:28" ht="15.75">
+    <row r="64" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A64" s="42" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="B64" s="11" t="s">
         <v>6</v>
@@ -5221,9 +5241,9 @@
       <c r="AA64" s="12"/>
       <c r="AB64" s="12"/>
     </row>
-    <row r="65" spans="1:28" ht="15.75">
+    <row r="65" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A65" s="42" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="B65" s="11" t="s">
         <v>15</v>
@@ -5281,9 +5301,9 @@
         <v>2366</v>
       </c>
     </row>
-    <row r="66" spans="1:28" ht="15.75">
+    <row r="66" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A66" s="42" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B66" s="50" t="s">
         <v>3</v>
@@ -5341,9 +5361,9 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="67" spans="1:28" ht="15.75">
+    <row r="67" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A67" s="42" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="B67" s="50" t="s">
         <v>3</v>
@@ -5401,9 +5421,9 @@
         <v>135</v>
       </c>
     </row>
-    <row r="68" spans="1:28" ht="15.75">
+    <row r="68" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A68" s="42" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B68" s="50" t="s">
         <v>3</v>
@@ -5451,9 +5471,9 @@
       <c r="AA68" s="12"/>
       <c r="AB68" s="12"/>
     </row>
-    <row r="69" spans="1:28" ht="15.75">
+    <row r="69" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A69" s="42" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="B69" s="11" t="s">
         <v>6</v>
@@ -5511,12 +5531,12 @@
         <v>78.400000000000006</v>
       </c>
     </row>
-    <row r="70" spans="1:28" ht="15.75">
+    <row r="70" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A70" s="42" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="B70" s="11" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="C70" s="1">
         <v>55.9</v>
@@ -5575,9 +5595,9 @@
         <v>56.9</v>
       </c>
     </row>
-    <row r="71" spans="1:28" ht="15.75">
+    <row r="71" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A71" s="42" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="B71" s="11" t="s">
         <v>5</v>
@@ -5635,9 +5655,9 @@
         <v>10.1</v>
       </c>
     </row>
-    <row r="72" spans="1:28" ht="15.75">
+    <row r="72" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A72" s="42" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="B72" s="11" t="s">
         <v>11</v>
@@ -5699,9 +5719,9 @@
         <v>11.6</v>
       </c>
     </row>
-    <row r="73" spans="1:28" ht="15.75">
+    <row r="73" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A73" s="42" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="B73" s="11" t="s">
         <v>10</v>
@@ -5759,9 +5779,9 @@
         <v>498</v>
       </c>
     </row>
-    <row r="74" spans="1:28" ht="15.75">
+    <row r="74" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A74" s="42" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="B74" s="11" t="s">
         <v>10</v>
@@ -5821,9 +5841,9 @@
       </c>
       <c r="AB74" s="12"/>
     </row>
-    <row r="75" spans="1:28" ht="15.75">
+    <row r="75" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A75" s="42" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="B75" s="11" t="s">
         <v>10</v>
@@ -5883,9 +5903,9 @@
       </c>
       <c r="AB75" s="12"/>
     </row>
-    <row r="76" spans="1:28" ht="15.75">
+    <row r="76" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A76" s="42" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="B76" s="11" t="s">
         <v>10</v>
@@ -5943,9 +5963,9 @@
         <v>84</v>
       </c>
     </row>
-    <row r="77" spans="1:28" ht="15.75">
+    <row r="77" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A77" s="42" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="B77" s="11" t="s">
         <v>10</v>
@@ -5993,9 +6013,9 @@
       <c r="AA77" s="12"/>
       <c r="AB77" s="12"/>
     </row>
-    <row r="78" spans="1:28" ht="15.75">
+    <row r="78" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A78" s="42" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="B78" s="11" t="s">
         <v>10</v>
@@ -6053,9 +6073,9 @@
         <v>73.400000000000006</v>
       </c>
     </row>
-    <row r="79" spans="1:28" ht="15.75">
+    <row r="79" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A79" s="42" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="B79" s="11" t="s">
         <v>10</v>
@@ -6103,9 +6123,9 @@
       <c r="AA79" s="30"/>
       <c r="AB79" s="30"/>
     </row>
-    <row r="80" spans="1:28" ht="15.75">
+    <row r="80" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A80" s="42" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="B80" s="11" t="s">
         <v>10</v>
@@ -6167,9 +6187,9 @@
         <v>24.2</v>
       </c>
     </row>
-    <row r="81" spans="1:28" ht="15.75">
+    <row r="81" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A81" s="42" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="B81" s="11" t="s">
         <v>12</v>
@@ -6227,9 +6247,9 @@
         <v>7575</v>
       </c>
     </row>
-    <row r="82" spans="1:28" ht="15.75">
+    <row r="82" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A82" s="42" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="B82" s="11" t="s">
         <v>10</v>
@@ -6289,9 +6309,9 @@
         <v>525</v>
       </c>
     </row>
-    <row r="83" spans="1:28" ht="15.75">
+    <row r="83" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A83" s="42" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="B83" s="11" t="s">
         <v>10</v>
@@ -6349,9 +6369,9 @@
       <c r="AA83" s="12"/>
       <c r="AB83" s="12"/>
     </row>
-    <row r="84" spans="1:28" ht="15.75">
+    <row r="84" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A84" s="42" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="B84" s="11" t="s">
         <v>10</v>
@@ -6399,9 +6419,9 @@
       <c r="AA84" s="12"/>
       <c r="AB84" s="12"/>
     </row>
-    <row r="85" spans="1:28" ht="15.75">
+    <row r="85" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A85" s="42" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="B85" s="11" t="s">
         <v>10</v>
@@ -6459,9 +6479,9 @@
         <v>43.2</v>
       </c>
     </row>
-    <row r="86" spans="1:28" ht="15.75">
+    <row r="86" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A86" s="42" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="B86" s="11" t="s">
         <v>10</v>
@@ -6545,9 +6565,9 @@
         <v>2168</v>
       </c>
     </row>
-    <row r="87" spans="1:28" ht="15.75">
+    <row r="87" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A87" s="42" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="B87" s="11" t="s">
         <v>10</v>
@@ -6621,9 +6641,9 @@
       <c r="AA87" s="12"/>
       <c r="AB87" s="12"/>
     </row>
-    <row r="88" spans="1:28" ht="15.75">
+    <row r="88" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A88" s="42" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="B88" s="11" t="s">
         <v>10</v>
@@ -6671,9 +6691,9 @@
       <c r="AA88" s="12"/>
       <c r="AB88" s="12"/>
     </row>
-    <row r="89" spans="1:28" ht="15.75">
+    <row r="89" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A89" s="42" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="B89" s="11" t="s">
         <v>10</v>
@@ -6721,9 +6741,9 @@
       <c r="AA89" s="12"/>
       <c r="AB89" s="12"/>
     </row>
-    <row r="90" spans="1:28" ht="15.75">
+    <row r="90" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A90" s="42" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="B90" s="23" t="s">
         <v>9</v>
@@ -6771,9 +6791,9 @@
       <c r="AA90" s="12"/>
       <c r="AB90" s="12"/>
     </row>
-    <row r="91" spans="1:28" ht="15.75">
+    <row r="91" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A91" s="42" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="B91" s="11" t="s">
         <v>15</v>
@@ -6831,9 +6851,9 @@
         <v>2102</v>
       </c>
     </row>
-    <row r="92" spans="1:28" ht="15.75">
+    <row r="92" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A92" s="42" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="B92" s="11" t="s">
         <v>5</v>
@@ -6891,9 +6911,9 @@
         <v>164</v>
       </c>
     </row>
-    <row r="93" spans="1:28" ht="15.75">
+    <row r="93" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A93" s="42" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="B93" s="11" t="s">
         <v>5</v>
@@ -6951,9 +6971,9 @@
         <v>1212</v>
       </c>
     </row>
-    <row r="94" spans="1:28" ht="15.75">
+    <row r="94" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A94" s="42" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="B94" s="11" t="s">
         <v>5</v>
@@ -7011,9 +7031,9 @@
         <v>13.1</v>
       </c>
     </row>
-    <row r="95" spans="1:28" ht="15.75">
+    <row r="95" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A95" s="42" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="B95" s="11" t="s">
         <v>6</v>
@@ -7071,12 +7091,12 @@
         <v>44.7</v>
       </c>
     </row>
-    <row r="96" spans="1:28" ht="15.75">
+    <row r="96" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A96" s="42" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="B96" s="11" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="C96" s="3"/>
       <c r="D96" s="3"/>
@@ -7131,9 +7151,9 @@
         <v>2192</v>
       </c>
     </row>
-    <row r="97" spans="1:28" ht="15.75">
+    <row r="97" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A97" s="42" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="B97" s="24" t="s">
         <v>11</v>
@@ -7217,9 +7237,9 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="98" spans="1:28" ht="15.75">
+    <row r="98" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A98" s="42" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="B98" s="11" t="s">
         <v>10</v>
@@ -7277,12 +7297,12 @@
         <v>2717</v>
       </c>
     </row>
-    <row r="99" spans="1:28" ht="15.75">
+    <row r="99" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A99" s="42" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="B99" s="11" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="C99" s="3"/>
       <c r="D99" s="3"/>
@@ -7337,9 +7357,9 @@
         <v>3357</v>
       </c>
     </row>
-    <row r="100" spans="1:28" ht="15.75">
+    <row r="100" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A100" s="42" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="B100" s="50" t="s">
         <v>13</v>
@@ -7397,12 +7417,12 @@
         <v>4408</v>
       </c>
     </row>
-    <row r="101" spans="1:28" ht="15.75">
+    <row r="101" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A101" s="42" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="B101" s="23" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="C101" s="4"/>
       <c r="D101" s="4"/>
@@ -7447,9 +7467,9 @@
       <c r="AA101" s="12"/>
       <c r="AB101" s="12"/>
     </row>
-    <row r="102" spans="1:28" ht="15.75">
+    <row r="102" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A102" s="42" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="B102" s="11" t="s">
         <v>6</v>
@@ -7507,9 +7527,9 @@
         <v>27.8</v>
       </c>
     </row>
-    <row r="103" spans="1:28" ht="15.75">
+    <row r="103" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A103" s="42" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="B103" s="50" t="s">
         <v>13</v>
@@ -7557,9 +7577,9 @@
       <c r="AA103" s="12"/>
       <c r="AB103" s="12"/>
     </row>
-    <row r="104" spans="1:28" ht="25.5" customHeight="1">
+    <row r="104" spans="1:28" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="42" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="B104" s="11" t="s">
         <v>11</v>
@@ -7621,9 +7641,9 @@
         <v>21.9</v>
       </c>
     </row>
-    <row r="105" spans="1:28" ht="15.75">
+    <row r="105" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A105" s="42" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="B105" s="11" t="s">
         <v>11</v>
@@ -7681,9 +7701,9 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="106" spans="1:28" ht="15.75">
+    <row r="106" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A106" s="42" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="B106" s="11" t="s">
         <v>11</v>
@@ -7745,9 +7765,9 @@
         <v>11.2</v>
       </c>
     </row>
-    <row r="107" spans="1:28" ht="15.75">
+    <row r="107" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A107" s="42" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="B107" s="11" t="s">
         <v>11</v>
@@ -7809,9 +7829,9 @@
         <v>11.9</v>
       </c>
     </row>
-    <row r="108" spans="1:28" ht="15.75">
+    <row r="108" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A108" s="42" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="B108" s="49" t="s">
         <v>11</v>
@@ -7895,9 +7915,9 @@
         <v>12.1</v>
       </c>
     </row>
-    <row r="109" spans="1:28" ht="15.75">
+    <row r="109" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A109" s="42" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="B109" s="13" t="s">
         <v>10</v>
@@ -7981,9 +8001,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:28" ht="15.75">
+    <row r="110" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A110" s="42" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="B110" s="13" t="s">
         <v>10</v>
@@ -8031,9 +8051,9 @@
       <c r="AA110" s="12"/>
       <c r="AB110" s="12"/>
     </row>
-    <row r="111" spans="1:28" ht="15.75">
+    <row r="111" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A111" s="42" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="B111" s="13" t="s">
         <v>10</v>
@@ -8091,9 +8111,9 @@
         <v>268</v>
       </c>
     </row>
-    <row r="112" spans="1:28" ht="15.75">
+    <row r="112" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A112" s="42" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="B112" s="23" t="s">
         <v>9</v>
@@ -8141,9 +8161,9 @@
       <c r="AA112" s="12"/>
       <c r="AB112" s="12"/>
     </row>
-    <row r="113" spans="1:28" ht="15.75">
+    <row r="113" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A113" s="42" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="B113" s="11" t="s">
         <v>14</v>
@@ -8191,9 +8211,9 @@
       <c r="AA113" s="12"/>
       <c r="AB113" s="12"/>
     </row>
-    <row r="114" spans="1:28" ht="15.75">
+    <row r="114" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A114" s="42" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="B114" s="23" t="s">
         <v>9</v>
@@ -8251,9 +8271,9 @@
         <v>94.8</v>
       </c>
     </row>
-    <row r="115" spans="1:28" ht="15.75">
+    <row r="115" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A115" s="42" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="B115" s="11" t="s">
         <v>14</v>
@@ -8315,9 +8335,9 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="116" spans="1:28" ht="15.75">
+    <row r="116" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A116" s="42" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="B116" s="11" t="s">
         <v>14</v>
@@ -8375,9 +8395,9 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="117" spans="1:28" ht="15.75">
+    <row r="117" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A117" s="42" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="B117" s="11" t="s">
         <v>9</v>
@@ -8435,9 +8455,9 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="118" spans="1:28" ht="25.5" customHeight="1">
+    <row r="118" spans="1:28" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="42" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="B118" s="11" t="s">
         <v>9</v>
@@ -8499,9 +8519,9 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="119" spans="1:28" ht="15.75">
+    <row r="119" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A119" s="42" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="B119" s="11" t="s">
         <v>9</v>
@@ -8559,9 +8579,9 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="120" spans="1:28" ht="15.75">
+    <row r="120" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A120" s="42" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="B120" s="11" t="s">
         <v>14</v>
@@ -8617,9 +8637,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="121" spans="1:28" ht="15.75">
+    <row r="121" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A121" s="42" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="B121" s="11" t="s">
         <v>14</v>
@@ -8677,9 +8697,9 @@
         <v>38</v>
       </c>
     </row>
-    <row r="122" spans="1:28" ht="15.75">
+    <row r="122" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A122" s="42" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="B122" s="11" t="s">
         <v>14</v>
@@ -8737,9 +8757,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="123" spans="1:28" ht="15.75">
+    <row r="123" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A123" s="42" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="B123" s="11" t="s">
         <v>14</v>
@@ -8797,9 +8817,9 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="124" spans="1:28" ht="15.75">
+    <row r="124" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A124" s="42" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="B124" s="11" t="s">
         <v>9</v>
@@ -8857,9 +8877,9 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="125" spans="1:28" ht="15.75">
+    <row r="125" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A125" s="42" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="B125" s="11" t="s">
         <v>9</v>
@@ -8917,9 +8937,9 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="126" spans="1:28" ht="15.75">
+    <row r="126" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A126" s="42" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="B126" s="11" t="s">
         <v>14</v>
@@ -8977,9 +8997,9 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="127" spans="1:28" ht="15.75">
+    <row r="127" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A127" s="42" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="B127" s="11" t="s">
         <v>14</v>
@@ -9035,9 +9055,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="128" spans="1:28" ht="15.75">
+    <row r="128" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A128" s="42" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="B128" s="11" t="s">
         <v>14</v>
@@ -9095,9 +9115,9 @@
         <v>11.1</v>
       </c>
     </row>
-    <row r="129" spans="1:28" ht="15.75">
+    <row r="129" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A129" s="42" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="B129" s="60" t="s">
         <v>9</v>
@@ -9145,9 +9165,9 @@
       <c r="AA129" s="12"/>
       <c r="AB129" s="12"/>
     </row>
-    <row r="130" spans="1:28" ht="15.75">
+    <row r="130" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A130" s="42" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="B130" s="60" t="s">
         <v>9</v>
@@ -9221,9 +9241,9 @@
       <c r="AA130" s="12"/>
       <c r="AB130" s="12"/>
     </row>
-    <row r="131" spans="1:28" ht="15.75">
+    <row r="131" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A131" s="42" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="B131" s="11" t="s">
         <v>9</v>
@@ -9275,9 +9295,9 @@
       <c r="AA131" s="30"/>
       <c r="AB131" s="30"/>
     </row>
-    <row r="132" spans="1:28" ht="31.5">
+    <row r="132" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A132" s="54" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="B132" s="11" t="s">
         <v>9</v>
@@ -9335,9 +9355,9 @@
         <v>18.2</v>
       </c>
     </row>
-    <row r="133" spans="1:28" ht="47.25">
+    <row r="133" spans="1:28" ht="32" x14ac:dyDescent="0.2">
       <c r="A133" s="54" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="B133" s="11" t="s">
         <v>9</v>
@@ -9395,9 +9415,9 @@
         <v>243</v>
       </c>
     </row>
-    <row r="134" spans="1:28" ht="15.75">
+    <row r="134" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A134" s="54" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="B134" s="11" t="s">
         <v>5</v>
@@ -9455,9 +9475,9 @@
         <v>7.1</v>
       </c>
     </row>
-    <row r="135" spans="1:28" ht="31.5">
+    <row r="135" spans="1:28" ht="32" x14ac:dyDescent="0.2">
       <c r="A135" s="54" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="B135" s="11" t="s">
         <v>9</v>
@@ -9515,9 +9535,9 @@
         <v>203</v>
       </c>
     </row>
-    <row r="136" spans="1:28" ht="31.5">
+    <row r="136" spans="1:28" ht="32" x14ac:dyDescent="0.2">
       <c r="A136" s="54" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="B136" s="11" t="s">
         <v>5</v>
@@ -9575,9 +9595,9 @@
         <v>6.9</v>
       </c>
     </row>
-    <row r="137" spans="1:28" ht="15.75">
+    <row r="137" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A137" s="54" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="B137" s="11" t="s">
         <v>9</v>
@@ -9635,9 +9655,9 @@
         <v>4.3</v>
       </c>
     </row>
-    <row r="138" spans="1:28" ht="47.25">
+    <row r="138" spans="1:28" ht="48" x14ac:dyDescent="0.2">
       <c r="A138" s="54" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="B138" s="51" t="s">
         <v>9</v>
@@ -9685,9 +9705,9 @@
       <c r="AA138" s="12"/>
       <c r="AB138" s="12"/>
     </row>
-    <row r="139" spans="1:28" ht="47.25">
+    <row r="139" spans="1:28" ht="48" x14ac:dyDescent="0.2">
       <c r="A139" s="54" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="B139" s="11" t="s">
         <v>16</v>
@@ -9735,9 +9755,9 @@
       <c r="AA139" s="12"/>
       <c r="AB139" s="12"/>
     </row>
-    <row r="140" spans="1:28" ht="15.75">
+    <row r="140" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A140" s="54" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="B140" s="11" t="s">
         <v>9</v>
@@ -9785,9 +9805,9 @@
       <c r="AA140" s="30"/>
       <c r="AB140" s="12"/>
     </row>
-    <row r="141" spans="1:28" ht="15.75">
+    <row r="141" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A141" s="42" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="B141" s="11" t="s">
         <v>9</v>
@@ -9835,9 +9855,9 @@
       <c r="AA141" s="12"/>
       <c r="AB141" s="12"/>
     </row>
-    <row r="142" spans="1:28" ht="15.75">
+    <row r="142" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A142" s="42" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="B142" s="11" t="s">
         <v>9</v>
@@ -9895,9 +9915,9 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="143" spans="1:28" ht="15.75">
+    <row r="143" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A143" s="42" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="B143" s="11" t="s">
         <v>9</v>
@@ -9955,9 +9975,9 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="144" spans="1:28" ht="15.75">
+    <row r="144" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A144" s="42" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="B144" s="11" t="s">
         <v>9</v>
@@ -10039,9 +10059,9 @@
       </c>
       <c r="AB144" s="12"/>
     </row>
-    <row r="145" spans="1:28" ht="15.75">
+    <row r="145" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A145" s="42" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="B145" s="11" t="s">
         <v>9</v>
@@ -10103,9 +10123,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:28" ht="15.75">
+    <row r="146" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A146" s="42" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="B146" s="11" t="s">
         <v>9</v>
@@ -10162,9 +10182,9 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="147" spans="1:28" ht="15.75">
+    <row r="147" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A147" s="42" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="B147" s="11" t="s">
         <v>9</v>
@@ -10222,9 +10242,9 @@
         <v>34.700000000000003</v>
       </c>
     </row>
-    <row r="148" spans="1:28" ht="15.75">
+    <row r="148" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A148" s="42" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="B148" s="11" t="s">
         <v>9</v>
@@ -10289,28 +10309,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" ht="15.75">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -10320,12 +10340,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Data/Processing industry_fin.xlsx
+++ b/Data/Processing industry_fin.xlsx
@@ -1,22 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="28109"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aleksandr/Documents/GIT/Privatization-in-Ukraine.-1992-2015/Data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="90" windowWidth="15255" windowHeight="5385"/>
+    <workbookView xWindow="0" yWindow="1560" windowWidth="22580" windowHeight="10140"/>
   </bookViews>
   <sheets>
     <sheet name="processing industry" sheetId="1" r:id="rId1"/>
     <sheet name="information" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="176">
   <si>
     <t>…</t>
   </si>
@@ -153,12 +166,6 @@
     <t>Vodka and other strong alcoholic drinks (potable spirit with the spirit content of 45.4 ab.%; spirits produced through distillation from fruit)</t>
   </si>
   <si>
-    <t>Liqueurs, sweet brandy, alcoholic bitters, other alcoholic drinks,</t>
-  </si>
-  <si>
-    <t>Not denatured spirit with alcohol content not less than 80%,</t>
-  </si>
-  <si>
     <t>Wine "Champagne"</t>
   </si>
   <si>
@@ -204,18 +211,9 @@
     <t>Coats, short coats, capes, raincoats, warm parkas or alaskas and similar products for women and girls</t>
   </si>
   <si>
-    <t>Suits for men and boys, </t>
-  </si>
-  <si>
     <t>Suits for women and girls</t>
   </si>
   <si>
-    <t>Jackets, blazers, pullovers and similar products for men and boys,</t>
-  </si>
-  <si>
-    <t>Jackets, blazers, pullovers and similar products for women and girls,</t>
-  </si>
-  <si>
     <t>Gowns and sun-dresses for women and girls</t>
   </si>
   <si>
@@ -228,18 +226,12 @@
     <t>Knitted underwear</t>
   </si>
   <si>
-    <t>Coats, short coats, fur coats, thsd. </t>
-  </si>
-  <si>
     <t>Footwear</t>
   </si>
   <si>
     <t>Wood, sawn or chipped lengthwise, of a thickness more than 6 mm</t>
   </si>
   <si>
-    <t>Non-coniferous wood blocks, strips and friezes for parquet or wood block flooring, continuously shaped, unassembled,</t>
-  </si>
-  <si>
     <t>Plywood</t>
   </si>
   <si>
@@ -252,21 +244,12 @@
     <t>Planed veneer</t>
   </si>
   <si>
-    <t>Windows, doors, their frames and thresholds, of wood,</t>
-  </si>
-  <si>
     <t>Uncoated paper and cardboard for graphic purposes</t>
   </si>
   <si>
-    <t>Paper for household, sanitary and hygiene purposes,</t>
-  </si>
-  <si>
     <t>Special uncoated paper and cardboard; cigarette paper not cut by size</t>
   </si>
   <si>
-    <t>Boxes, cabinets and bags from crinkled paper and cardboard,</t>
-  </si>
-  <si>
     <t>Wallpaper and similar coverings</t>
   </si>
   <si>
@@ -294,15 +277,9 @@
     <t>Heavy fuel oil</t>
   </si>
   <si>
-    <t>Lubrications, other oils,</t>
-  </si>
-  <si>
     <t>Liquefied propane and butane</t>
   </si>
   <si>
-    <t>Oil paraffin,</t>
-  </si>
-  <si>
     <t>Oil asphalt and shore bitumen</t>
   </si>
   <si>
@@ -312,45 +289,18 @@
     <t>Sulphuric acid,</t>
   </si>
   <si>
-    <t>Sodium hydroxide (caustic soda</t>
-  </si>
-  <si>
     <t>Hydrocarbon acyclic</t>
   </si>
   <si>
-    <t>Hydrocarbon cyclic,</t>
-  </si>
-  <si>
     <t>Ammonia synthetic</t>
   </si>
   <si>
-    <t>Nitric mineral or chemical fertilizers,</t>
-  </si>
-  <si>
-    <t>Plastic in primary forms,</t>
-  </si>
-  <si>
     <t>Chemical fibres</t>
   </si>
   <si>
-    <t>Tyres – total,</t>
-  </si>
-  <si>
-    <t>Multiple-layer insulating units of glass, </t>
-  </si>
-  <si>
     <t>Glass preserving jars (in terms 0,5 litre)</t>
   </si>
   <si>
-    <t>Glass containers for beverages and foodstuffs,</t>
-  </si>
-  <si>
-    <t>Tableware, kitchenware, other household chinaware,</t>
-  </si>
-  <si>
-    <t>Ceramic slabs and tiles,</t>
-  </si>
-  <si>
     <t>Ceramic non-refractory construction bricks, mln. pcs conventional bricks</t>
   </si>
   <si>
@@ -375,27 +325,12 @@
     <t>Slag wool, mineral silicate wool and similar mineral wools (including mixtures) in blocks, sheets or rolls</t>
   </si>
   <si>
-    <t>Cast iron,</t>
-  </si>
-  <si>
-    <t>Ferroalloy,</t>
-  </si>
-  <si>
-    <t>Steel without semi-finished products produced through continuous casting,</t>
-  </si>
-  <si>
-    <t>Semi-finished products produced through continuous casting,</t>
-  </si>
-  <si>
     <t>Finished rolled ferrous metals</t>
   </si>
   <si>
     <t>Pipes of  large and small diameters, hollow sections made of  ferrous  metals</t>
   </si>
   <si>
-    <t>Wares becoming from cold pressing and bending from non-alloyed steel, </t>
-  </si>
-  <si>
     <t>Steel wire</t>
   </si>
   <si>
@@ -426,9 +361,6 @@
     <t>Grain harvester combines</t>
   </si>
   <si>
-    <t>Lathes, grinders, drillers, milling machines,</t>
-  </si>
-  <si>
     <t>Presses and forge machines</t>
   </si>
   <si>
@@ -444,9 +376,6 @@
     <t>Boring and sinking machines</t>
   </si>
   <si>
-    <t>Excavating machines,</t>
-  </si>
-  <si>
     <t>Machines and equipment for processing meat and poultry</t>
   </si>
   <si>
@@ -462,36 +391,12 @@
     <t>DC motors and dc generators</t>
   </si>
   <si>
-    <t>Ac motors and ac generators, universal motors, </t>
-  </si>
-  <si>
     <t>Electric transformers</t>
   </si>
   <si>
-    <t>High-Tension electrical facilities,</t>
-  </si>
-  <si>
-    <t>Low-Tension electrical facilities, </t>
-  </si>
-  <si>
-    <t>Winding insulated wire,</t>
-  </si>
-  <si>
-    <t>Low-voltage electric wires and cables with 1000 voltage and less,</t>
-  </si>
-  <si>
-    <t>Electric wires and cables with 1000 voltage and more, thsd. km</t>
-  </si>
-  <si>
     <t>TV sets</t>
   </si>
   <si>
-    <t>Devices for dimension physical and chemical quantities,</t>
-  </si>
-  <si>
-    <t>Electric meter, including calibre, </t>
-  </si>
-  <si>
     <t>Devices and facilities for automatic regulation and management</t>
   </si>
   <si>
@@ -505,31 +410,6 @@
   </si>
   <si>
     <t>Nonself-propelled trucks</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Data for 1990-2000 years for </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="TimesNewRomanPS-BoldMT"/>
-      </rPr>
-      <t xml:space="preserve">fat cheese; flour; sparkling wine "Champagne"; beer; soft drinks; plywood, wood-plates and similar wood plates; wallpaper and paper products for covering walls;  coke and semi-coke of coal stone; motor gasoline; diesel fuel;  bitumen; acid sulfuric sodium hydroxide (caustic soda) in aqueous; iron processed;  steel without semi-continuous casting;  semi-continuous casting; tractors for agriculture and forestry; drills; buses </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">is taken from Statistical Yearbook of Ukraine for 2013, page 100 (at the time of the latest edition of the work it could be downloaded from the link library.oneu.edu.ua/files/StatSchorichnyk_Ukrainy_2013.pdf.)  </t>
-    </r>
   </si>
   <si>
     <r>
@@ -587,15 +467,144 @@
       <t>3</t>
     </r>
   </si>
+  <si>
+    <t>Primary oil processing</t>
+  </si>
+  <si>
+    <t>TV receivers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Electric lamps </t>
+  </si>
+  <si>
+    <t>Bicycles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data for 1990-2000 years for fat cheese; flour; sparkling wine "Champagne"; beer; soft drinks; plywood, wood-plates and similar wood plates; wallpaper and paper products for covering walls;  coke and semi-coke of coal stone; motor gasoline; diesel fuel;  bitumen; acid sulfuric sodium hydroxide (caustic soda) in aqueous; iron processed;  steel without semi-continuous casting;  semi-continuous casting; tractors for agriculture and forestry; drills; buses is taken from Statistical Yearbook of Ukraine for 2013, page 100 (at the time of the latest edition of the work it could be downloaded from the link library.oneu.edu.ua/files/StatSchorichnyk_Ukrainy_2013.pdf.  </t>
+  </si>
+  <si>
+    <t>Liqueurs, sweet brandy, alcoholic bitters, other alcoholic drinks</t>
+  </si>
+  <si>
+    <t>Not denatured spirit with alcohol content not less than 80%</t>
+  </si>
+  <si>
+    <t>Suits for men and boys</t>
+  </si>
+  <si>
+    <t>Jackets, blazers, pullovers and similar products for men and boys</t>
+  </si>
+  <si>
+    <t>Jackets, blazers, pullovers and similar products for women and girls</t>
+  </si>
+  <si>
+    <t>Coats, short coats, fur coats</t>
+  </si>
+  <si>
+    <t>Non-coniferous wood blocks, strips and friezes for parquet or wood block flooring, continuously shaped, unassembled</t>
+  </si>
+  <si>
+    <t>Windows, doors, their frames and thresholds, of wood</t>
+  </si>
+  <si>
+    <t>Paper for household, sanitary and hygiene purposes</t>
+  </si>
+  <si>
+    <t>Boxes, cabinets and bags from crinkled paper and cardboard</t>
+  </si>
+  <si>
+    <t>Lubrications, other oils</t>
+  </si>
+  <si>
+    <t>Oil paraffin</t>
+  </si>
+  <si>
+    <t>Sodium hydroxide (caustic soda)</t>
+  </si>
+  <si>
+    <t>Hydrocarbon cyclic</t>
+  </si>
+  <si>
+    <t>Nitric mineral or chemical fertilizers</t>
+  </si>
+  <si>
+    <t>Plastic in primary forms</t>
+  </si>
+  <si>
+    <t>Tyres – total</t>
+  </si>
+  <si>
+    <t>Multiple-layer insulating units of glass</t>
+  </si>
+  <si>
+    <t>Glass containers for beverages and foodstuffs</t>
+  </si>
+  <si>
+    <t>Tableware, kitchenware, other household chinaware</t>
+  </si>
+  <si>
+    <t>Ceramic slabs and tiles</t>
+  </si>
+  <si>
+    <t>Cast iron</t>
+  </si>
+  <si>
+    <t>Ferroalloy</t>
+  </si>
+  <si>
+    <t>Steel without semi-finished products produced through continuous casting</t>
+  </si>
+  <si>
+    <t>Semi-finished products produced through continuous casting</t>
+  </si>
+  <si>
+    <t>Wares becoming from cold pressing and bending from non-alloyed steel</t>
+  </si>
+  <si>
+    <t>Lathes, grinders, drillers, milling machines</t>
+  </si>
+  <si>
+    <t>Excavating machines</t>
+  </si>
+  <si>
+    <t>Ac motors and ac generators, universal motors</t>
+  </si>
+  <si>
+    <t>High-Tension electrical facilities</t>
+  </si>
+  <si>
+    <t>Low-Tension electrical facilities</t>
+  </si>
+  <si>
+    <t>Winding insulated wire</t>
+  </si>
+  <si>
+    <t>Low-voltage electric wires and cables with 1000 voltage and less</t>
+  </si>
+  <si>
+    <t>Electric wires and cables with 1000 voltage and more</t>
+  </si>
+  <si>
+    <t>Devices for dimension physical and chemical quantities</t>
+  </si>
+  <si>
+    <t>Electric meter, including calibre</t>
+  </si>
+  <si>
+    <t>Rubber tires</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data for 1990-2013  years for  primary oil processing; еlectric lamps;  TV receivers;  bicycles; Rubber tires could be downloaded from the link  library.oneu.edu.ua/files/StatSchorichnyk_Ukrainy_2013.pdf.  </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -630,12 +639,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="7"/>
-      <color theme="1"/>
-      <name val="TimesNewRomanPS-BoldMT"/>
-    </font>
-    <font>
       <i/>
       <sz val="12"/>
       <color theme="1"/>
@@ -658,6 +661,20 @@
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="7.5"/>
+      <color theme="1"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="2">
@@ -756,42 +773,42 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -830,14 +847,14 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -855,23 +872,23 @@
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -880,7 +897,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -991,19 +1008,35 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1041,14 +1074,14 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -1075,14 +1108,15 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -1109,9 +1143,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1284,22 +1319,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB148"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AB153"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A20" sqref="A20"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A143" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A153" sqref="A153"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="26.5703125" customWidth="1"/>
+    <col min="1" max="1" width="66.5" customWidth="1"/>
+    <col min="2" max="2" width="26.5" customWidth="1"/>
     <col min="3" max="3" width="10" customWidth="1"/>
-    <col min="4" max="23" width="9.140625" customWidth="1"/>
+    <col min="4" max="23" width="9.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="15.75">
+    <row r="1" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="19"/>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -1383,7 +1419,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="2" spans="1:28" ht="15.75">
+    <row r="2" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
         <v>17</v>
       </c>
@@ -1443,7 +1479,7 @@
         <v>50.7</v>
       </c>
     </row>
-    <row r="3" spans="1:28" ht="15.75">
+    <row r="3" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="12" t="s">
         <v>18</v>
       </c>
@@ -1503,7 +1539,7 @@
         <v>20.7</v>
       </c>
     </row>
-    <row r="4" spans="1:28" ht="15.75">
+    <row r="4" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="12" t="s">
         <v>19</v>
       </c>
@@ -1563,7 +1599,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="5" spans="1:28" ht="15.75">
+    <row r="5" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="12" t="s">
         <v>20</v>
       </c>
@@ -1623,7 +1659,7 @@
         <v>15.7</v>
       </c>
     </row>
-    <row r="6" spans="1:28" ht="15.75">
+    <row r="6" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="12" t="s">
         <v>21</v>
       </c>
@@ -1683,7 +1719,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="7" spans="1:28" ht="15.75">
+    <row r="7" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="12" t="s">
         <v>22</v>
       </c>
@@ -1743,7 +1779,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="8" spans="1:28" ht="15.75">
+    <row r="8" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="12" t="s">
         <v>23</v>
       </c>
@@ -1829,7 +1865,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="9" spans="1:28" ht="15.75">
+    <row r="9" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="12" t="s">
         <v>24</v>
       </c>
@@ -1889,7 +1925,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="10" spans="1:28" ht="15.75">
+    <row r="10" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="12" t="s">
         <v>25</v>
       </c>
@@ -1949,7 +1985,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="11" spans="1:28" ht="15.75">
+    <row r="11" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="12" t="s">
         <v>26</v>
       </c>
@@ -2035,7 +2071,7 @@
         <v>3715</v>
       </c>
     </row>
-    <row r="12" spans="1:28" ht="15.75">
+    <row r="12" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>27</v>
       </c>
@@ -2095,9 +2131,9 @@
         <v>192</v>
       </c>
     </row>
-    <row r="13" spans="1:28" ht="15.75">
+    <row r="13" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>168</v>
+        <v>131</v>
       </c>
       <c r="B13" s="18" t="s">
         <v>2</v>
@@ -2155,28 +2191,54 @@
         <v>970</v>
       </c>
     </row>
-    <row r="14" spans="1:28" ht="15.75">
+    <row r="14" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="12" t="s">
         <v>28</v>
       </c>
       <c r="B14" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
-      <c r="M14" s="4"/>
-      <c r="N14" s="4"/>
-      <c r="O14" s="4"/>
+      <c r="C14" s="45">
+        <v>444</v>
+      </c>
+      <c r="D14" s="46">
+        <v>376</v>
+      </c>
+      <c r="E14" s="46">
+        <v>303</v>
+      </c>
+      <c r="F14" s="45">
+        <v>312</v>
+      </c>
+      <c r="G14" s="45">
+        <v>254</v>
+      </c>
+      <c r="H14" s="45">
+        <v>222</v>
+      </c>
+      <c r="I14" s="46">
+        <v>163</v>
+      </c>
+      <c r="J14" s="46">
+        <v>117</v>
+      </c>
+      <c r="K14" s="45">
+        <v>113</v>
+      </c>
+      <c r="L14" s="45">
+        <v>109</v>
+      </c>
+      <c r="M14" s="46">
+        <v>135</v>
+      </c>
+      <c r="N14" s="45">
+        <v>158</v>
+      </c>
+      <c r="O14" s="45">
+        <v>131</v>
+      </c>
       <c r="P14" s="5">
-        <v>1371</v>
+        <v>137</v>
       </c>
       <c r="Q14" s="5">
         <v>116</v>
@@ -2215,7 +2277,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="15" spans="1:28" ht="15.75">
+    <row r="15" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="12" t="s">
         <v>29</v>
       </c>
@@ -2235,9 +2297,7 @@
       <c r="M15" s="4"/>
       <c r="N15" s="4"/>
       <c r="O15" s="4"/>
-      <c r="P15" s="5" t="s">
-        <v>0</v>
-      </c>
+      <c r="P15" s="5"/>
       <c r="Q15" s="5">
         <v>53</v>
       </c>
@@ -2265,7 +2325,7 @@
       <c r="AA15" s="17"/>
       <c r="AB15" s="17"/>
     </row>
-    <row r="16" spans="1:28" ht="15.75">
+    <row r="16" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="12" t="s">
         <v>30</v>
       </c>
@@ -2325,7 +2385,7 @@
         <v>67.8</v>
       </c>
     </row>
-    <row r="17" spans="1:28" ht="15.75">
+    <row r="17" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="12" t="s">
         <v>31</v>
       </c>
@@ -2389,7 +2449,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="18" spans="1:28" ht="15.75">
+    <row r="18" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="12" t="s">
         <v>32</v>
       </c>
@@ -2449,7 +2509,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="19" spans="1:28" ht="25.5" customHeight="1">
+    <row r="19" spans="1:28" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="12" t="s">
         <v>33</v>
       </c>
@@ -2513,7 +2573,7 @@
         <v>2167</v>
       </c>
     </row>
-    <row r="20" spans="1:28" ht="15.75">
+    <row r="20" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="12" t="s">
         <v>34</v>
       </c>
@@ -2573,7 +2633,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="21" spans="1:28" ht="15.75">
+    <row r="21" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="12" t="s">
         <v>35</v>
       </c>
@@ -2633,7 +2693,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="22" spans="1:28" ht="15.75">
+    <row r="22" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="12" t="s">
         <v>36</v>
       </c>
@@ -2693,7 +2753,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="23" spans="1:28" ht="15.75">
+    <row r="23" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="12" t="s">
         <v>37</v>
       </c>
@@ -2779,7 +2839,7 @@
         <v>1459</v>
       </c>
     </row>
-    <row r="24" spans="1:28" ht="15.75">
+    <row r="24" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="12" t="s">
         <v>38</v>
       </c>
@@ -2839,7 +2899,7 @@
         <v>1459</v>
       </c>
     </row>
-    <row r="25" spans="1:28" ht="15.75">
+    <row r="25" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="12" t="s">
         <v>39</v>
       </c>
@@ -2899,7 +2959,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="26" spans="1:28" ht="15.75">
+    <row r="26" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="12" t="s">
         <v>40</v>
       </c>
@@ -2959,7 +3019,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="27" spans="1:28" ht="15.75">
+    <row r="27" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="12" t="s">
         <v>41</v>
       </c>
@@ -3019,7 +3079,7 @@
         <v>89.5</v>
       </c>
     </row>
-    <row r="28" spans="1:28" ht="15.75">
+    <row r="28" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="12" t="s">
         <v>42</v>
       </c>
@@ -3079,7 +3139,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="29" spans="1:28" ht="15.75">
+    <row r="29" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="12" t="s">
         <v>43</v>
       </c>
@@ -3139,7 +3199,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:28" ht="15.75">
+    <row r="30" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="12" t="s">
         <v>44</v>
       </c>
@@ -3199,9 +3259,9 @@
         <v>18.600000000000001</v>
       </c>
     </row>
-    <row r="31" spans="1:28" ht="15.75">
+    <row r="31" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="12" t="s">
-        <v>45</v>
+        <v>138</v>
       </c>
       <c r="B31" s="18" t="s">
         <v>3</v>
@@ -3259,9 +3319,9 @@
         <v>8.6999999999999993</v>
       </c>
     </row>
-    <row r="32" spans="1:28" ht="15.75">
+    <row r="32" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="12" t="s">
-        <v>46</v>
+        <v>139</v>
       </c>
       <c r="B32" s="18" t="s">
         <v>3</v>
@@ -3309,9 +3369,9 @@
       <c r="AA32" s="17"/>
       <c r="AB32" s="17"/>
     </row>
-    <row r="33" spans="1:28" ht="15.75">
+    <row r="33" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="12" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B33" s="18" t="s">
         <v>3</v>
@@ -3373,9 +3433,9 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="34" spans="1:28" ht="15.75">
+    <row r="34" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="12" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B34" s="18" t="s">
         <v>3</v>
@@ -3437,9 +3497,9 @@
         <v>195</v>
       </c>
     </row>
-    <row r="35" spans="1:28" ht="15.75">
+    <row r="35" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="12" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B35" s="18" t="s">
         <v>3</v>
@@ -3497,9 +3557,9 @@
         <v>36</v>
       </c>
     </row>
-    <row r="36" spans="1:28" ht="15.75">
+    <row r="36" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B36" s="18" t="s">
         <v>3</v>
@@ -3557,9 +3617,9 @@
         <v>72.8</v>
       </c>
     </row>
-    <row r="37" spans="1:28" ht="15.75">
+    <row r="37" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" s="12" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B37" s="18" t="s">
         <v>3</v>
@@ -3621,9 +3681,9 @@
         <v>110</v>
       </c>
     </row>
-    <row r="38" spans="1:28" ht="63">
+    <row r="38" spans="1:28" ht="32" x14ac:dyDescent="0.2">
       <c r="A38" s="20" t="s">
-        <v>167</v>
+        <v>130</v>
       </c>
       <c r="B38" s="25" t="s">
         <v>6</v>
@@ -3681,9 +3741,9 @@
         <v>92.9</v>
       </c>
     </row>
-    <row r="39" spans="1:28" ht="15.75">
+    <row r="39" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A39" s="12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B39" s="25" t="s">
         <v>2</v>
@@ -3741,9 +3801,9 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="40" spans="1:28" ht="15.75">
+    <row r="40" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A40" s="12" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B40" s="25" t="s">
         <v>5</v>
@@ -3827,9 +3887,9 @@
         <v>86.3</v>
       </c>
     </row>
-    <row r="41" spans="1:28" ht="15.75">
+    <row r="41" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A41" s="12" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B41" s="25" t="s">
         <v>4</v>
@@ -3887,9 +3947,9 @@
         <v>9.8000000000000007</v>
       </c>
     </row>
-    <row r="42" spans="1:28" ht="15.75">
+    <row r="42" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" s="12" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B42" s="25" t="s">
         <v>5</v>
@@ -3951,9 +4011,9 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="43" spans="1:28" ht="15.75">
+    <row r="43" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A43" s="12" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B43" s="25" t="s">
         <v>2</v>
@@ -4011,9 +4071,9 @@
         <v>19.5</v>
       </c>
     </row>
-    <row r="44" spans="1:28" ht="15.75">
+    <row r="44" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A44" s="12" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B44" s="25" t="s">
         <v>2</v>
@@ -4061,9 +4121,9 @@
       <c r="AA44" s="17"/>
       <c r="AB44" s="17"/>
     </row>
-    <row r="45" spans="1:28" ht="15.75">
+    <row r="45" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A45" s="12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B45" s="25" t="s">
         <v>2</v>
@@ -4111,9 +4171,9 @@
       <c r="AA45" s="17"/>
       <c r="AB45" s="17"/>
     </row>
-    <row r="46" spans="1:28" ht="15.75">
+    <row r="46" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A46" s="12" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B46" s="18" t="s">
         <v>7</v>
@@ -4161,9 +4221,9 @@
       <c r="AA46" s="17"/>
       <c r="AB46" s="17"/>
     </row>
-    <row r="47" spans="1:28" ht="15.75">
+    <row r="47" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" s="12" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B47" s="18" t="s">
         <v>8</v>
@@ -4221,9 +4281,9 @@
         <v>318</v>
       </c>
     </row>
-    <row r="48" spans="1:28" ht="15.75">
+    <row r="48" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" s="12" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B48" s="18" t="s">
         <v>8</v>
@@ -4281,9 +4341,9 @@
         <v>909</v>
       </c>
     </row>
-    <row r="49" spans="1:28" ht="15.75">
+    <row r="49" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A49" s="12" t="s">
-        <v>62</v>
+        <v>140</v>
       </c>
       <c r="B49" s="18" t="s">
         <v>8</v>
@@ -4331,9 +4391,9 @@
       <c r="AA49" s="17"/>
       <c r="AB49" s="17"/>
     </row>
-    <row r="50" spans="1:28" ht="15.75">
+    <row r="50" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A50" s="12" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B50" s="18" t="s">
         <v>8</v>
@@ -4381,9 +4441,9 @@
       <c r="AA50" s="17"/>
       <c r="AB50" s="17"/>
     </row>
-    <row r="51" spans="1:28" ht="15.75">
+    <row r="51" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A51" s="12" t="s">
-        <v>64</v>
+        <v>141</v>
       </c>
       <c r="B51" s="18" t="s">
         <v>8</v>
@@ -4431,9 +4491,9 @@
       <c r="AA51" s="17"/>
       <c r="AB51" s="17"/>
     </row>
-    <row r="52" spans="1:28" ht="15.75">
+    <row r="52" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A52" s="12" t="s">
-        <v>65</v>
+        <v>142</v>
       </c>
       <c r="B52" s="18" t="s">
         <v>8</v>
@@ -4481,9 +4541,9 @@
       <c r="AA52" s="17"/>
       <c r="AB52" s="17"/>
     </row>
-    <row r="53" spans="1:28" ht="15.75">
+    <row r="53" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A53" s="12" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B53" s="18" t="s">
         <v>8</v>
@@ -4531,9 +4591,9 @@
       <c r="AA53" s="17"/>
       <c r="AB53" s="17"/>
     </row>
-    <row r="54" spans="1:28" ht="15.75">
+    <row r="54" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A54" s="12" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B54" s="18" t="s">
         <v>8</v>
@@ -4581,9 +4641,9 @@
       <c r="AA54" s="17"/>
       <c r="AB54" s="17"/>
     </row>
-    <row r="55" spans="1:28" ht="15.75">
+    <row r="55" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A55" s="12" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B55" s="18" t="s">
         <v>8</v>
@@ -4631,9 +4691,9 @@
       <c r="AA55" s="17"/>
       <c r="AB55" s="17"/>
     </row>
-    <row r="56" spans="1:28" ht="15.75">
+    <row r="56" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A56" s="12" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B56" s="18" t="s">
         <v>4</v>
@@ -4681,9 +4741,9 @@
       <c r="AA56" s="17"/>
       <c r="AB56" s="17"/>
     </row>
-    <row r="57" spans="1:28" ht="15.75">
+    <row r="57" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A57" s="12" t="s">
-        <v>70</v>
+        <v>143</v>
       </c>
       <c r="B57" s="18" t="s">
         <v>8</v>
@@ -4741,9 +4801,9 @@
         <v>8.1</v>
       </c>
     </row>
-    <row r="58" spans="1:28" ht="15.75">
+    <row r="58" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A58" s="12" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="B58" s="18" t="s">
         <v>7</v>
@@ -4801,9 +4861,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="59" spans="1:28" ht="15.75">
+    <row r="59" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A59" s="12" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="B59" s="18" t="s">
         <v>12</v>
@@ -4861,9 +4921,9 @@
         <v>1917</v>
       </c>
     </row>
-    <row r="60" spans="1:28" ht="15.75">
+    <row r="60" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A60" s="12" t="s">
-        <v>73</v>
+        <v>144</v>
       </c>
       <c r="B60" s="18" t="s">
         <v>14</v>
@@ -4921,9 +4981,9 @@
         <v>69.099999999999994</v>
       </c>
     </row>
-    <row r="61" spans="1:28" ht="15.75">
+    <row r="61" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A61" s="12" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="B61" s="18" t="s">
         <v>12</v>
@@ -4985,12 +5045,12 @@
         <v>186</v>
       </c>
     </row>
-    <row r="62" spans="1:28" ht="31.5">
+    <row r="62" spans="1:28" ht="32" x14ac:dyDescent="0.2">
       <c r="A62" s="12" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="B62" s="18" t="s">
-        <v>165</v>
+        <v>128</v>
       </c>
       <c r="C62" s="4">
         <v>1200</v>
@@ -5049,9 +5109,9 @@
         <v>1269</v>
       </c>
     </row>
-    <row r="63" spans="1:28" ht="15.75">
+    <row r="63" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A63" s="12" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="B63" s="18" t="s">
         <v>12</v>
@@ -5099,9 +5159,9 @@
       <c r="AA63" s="17"/>
       <c r="AB63" s="17"/>
     </row>
-    <row r="64" spans="1:28" ht="15.75">
+    <row r="64" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A64" s="12" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="B64" s="18" t="s">
         <v>5</v>
@@ -5149,9 +5209,9 @@
       <c r="AA64" s="17"/>
       <c r="AB64" s="17"/>
     </row>
-    <row r="65" spans="1:28" ht="15.75">
+    <row r="65" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A65" s="12" t="s">
-        <v>78</v>
+        <v>145</v>
       </c>
       <c r="B65" s="18" t="s">
         <v>14</v>
@@ -5209,9 +5269,9 @@
         <v>2366</v>
       </c>
     </row>
-    <row r="66" spans="1:28" ht="15.75">
+    <row r="66" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A66" s="12" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B66" s="25" t="s">
         <v>2</v>
@@ -5269,9 +5329,9 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="67" spans="1:28" ht="15.75">
+    <row r="67" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A67" s="12" t="s">
-        <v>80</v>
+        <v>146</v>
       </c>
       <c r="B67" s="25" t="s">
         <v>2</v>
@@ -5329,9 +5389,9 @@
         <v>135</v>
       </c>
     </row>
-    <row r="68" spans="1:28" ht="15.75">
+    <row r="68" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A68" s="12" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="B68" s="25" t="s">
         <v>2</v>
@@ -5379,9 +5439,9 @@
       <c r="AA68" s="17"/>
       <c r="AB68" s="17"/>
     </row>
-    <row r="69" spans="1:28" ht="15.75">
+    <row r="69" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A69" s="12" t="s">
-        <v>82</v>
+        <v>147</v>
       </c>
       <c r="B69" s="18" t="s">
         <v>5</v>
@@ -5439,12 +5499,12 @@
         <v>78.400000000000006</v>
       </c>
     </row>
-    <row r="70" spans="1:28" ht="31.5">
+    <row r="70" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A70" s="12" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="B70" s="18" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="C70" s="4">
         <v>55.9</v>
@@ -5503,9 +5563,9 @@
         <v>56.9</v>
       </c>
     </row>
-    <row r="71" spans="1:28" ht="15.75">
+    <row r="71" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A71" s="12" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="B71" s="18" t="s">
         <v>4</v>
@@ -5563,9 +5623,9 @@
         <v>10.1</v>
       </c>
     </row>
-    <row r="72" spans="1:28" ht="15.75">
+    <row r="72" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A72" s="12" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="B72" s="18" t="s">
         <v>10</v>
@@ -5627,9 +5687,9 @@
         <v>11.6</v>
       </c>
     </row>
-    <row r="73" spans="1:28" ht="15.75">
+    <row r="73" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A73" s="12" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="B73" s="18" t="s">
         <v>9</v>
@@ -5687,9 +5747,9 @@
         <v>498</v>
       </c>
     </row>
-    <row r="74" spans="1:28" ht="15.75">
+    <row r="74" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A74" s="12" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="B74" s="18" t="s">
         <v>9</v>
@@ -5749,9 +5809,9 @@
       </c>
       <c r="AB74" s="17"/>
     </row>
-    <row r="75" spans="1:28" ht="15.75">
+    <row r="75" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A75" s="12" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="B75" s="18" t="s">
         <v>9</v>
@@ -5811,9 +5871,9 @@
       </c>
       <c r="AB75" s="17"/>
     </row>
-    <row r="76" spans="1:28" ht="15.75">
+    <row r="76" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A76" s="12" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="B76" s="18" t="s">
         <v>9</v>
@@ -5871,9 +5931,9 @@
         <v>84</v>
       </c>
     </row>
-    <row r="77" spans="1:28" ht="15.75">
+    <row r="77" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A77" s="12" t="s">
-        <v>92</v>
+        <v>148</v>
       </c>
       <c r="B77" s="18" t="s">
         <v>9</v>
@@ -5921,9 +5981,9 @@
       <c r="AA77" s="17"/>
       <c r="AB77" s="17"/>
     </row>
-    <row r="78" spans="1:28" ht="15.75">
+    <row r="78" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A78" s="12" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="B78" s="18" t="s">
         <v>9</v>
@@ -5981,9 +6041,9 @@
         <v>73.400000000000006</v>
       </c>
     </row>
-    <row r="79" spans="1:28" ht="18">
+    <row r="79" spans="1:28" ht="19" x14ac:dyDescent="0.2">
       <c r="A79" s="12" t="s">
-        <v>94</v>
+        <v>149</v>
       </c>
       <c r="B79" s="18" t="s">
         <v>9</v>
@@ -6020,7 +6080,7 @@
         <v>12.2</v>
       </c>
       <c r="V79" s="5" t="s">
-        <v>169</v>
+        <v>132</v>
       </c>
       <c r="W79" s="6">
         <v>14.3</v>
@@ -6031,9 +6091,9 @@
       <c r="AA79" s="8"/>
       <c r="AB79" s="8"/>
     </row>
-    <row r="80" spans="1:28" ht="15.75">
+    <row r="80" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A80" s="12" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="B80" s="18" t="s">
         <v>9</v>
@@ -6095,9 +6155,9 @@
         <v>24.2</v>
       </c>
     </row>
-    <row r="81" spans="1:28" ht="15.75">
+    <row r="81" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A81" s="12" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="B81" s="18" t="s">
         <v>11</v>
@@ -6155,9 +6215,9 @@
         <v>7575</v>
       </c>
     </row>
-    <row r="82" spans="1:28" ht="15.75">
+    <row r="82" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A82" s="12" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="B82" s="18" t="s">
         <v>9</v>
@@ -6217,9 +6277,9 @@
         <v>525</v>
       </c>
     </row>
-    <row r="83" spans="1:28" ht="15.75">
+    <row r="83" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A83" s="12" t="s">
-        <v>98</v>
+        <v>150</v>
       </c>
       <c r="B83" s="18" t="s">
         <v>9</v>
@@ -6277,9 +6337,9 @@
       <c r="AA83" s="17"/>
       <c r="AB83" s="17"/>
     </row>
-    <row r="84" spans="1:28" ht="15.75">
+    <row r="84" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A84" s="12" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="B84" s="18" t="s">
         <v>9</v>
@@ -6327,9 +6387,9 @@
       <c r="AA84" s="17"/>
       <c r="AB84" s="17"/>
     </row>
-    <row r="85" spans="1:28" ht="15.75">
+    <row r="85" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A85" s="12" t="s">
-        <v>100</v>
+        <v>151</v>
       </c>
       <c r="B85" s="18" t="s">
         <v>9</v>
@@ -6387,9 +6447,9 @@
         <v>43.2</v>
       </c>
     </row>
-    <row r="86" spans="1:28" ht="15.75">
+    <row r="86" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A86" s="12" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B86" s="18" t="s">
         <v>9</v>
@@ -6473,9 +6533,9 @@
         <v>2168</v>
       </c>
     </row>
-    <row r="87" spans="1:28" ht="15.75">
+    <row r="87" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A87" s="12" t="s">
-        <v>102</v>
+        <v>152</v>
       </c>
       <c r="B87" s="18" t="s">
         <v>9</v>
@@ -6549,9 +6609,9 @@
       <c r="AA87" s="17"/>
       <c r="AB87" s="17"/>
     </row>
-    <row r="88" spans="1:28" ht="15.75">
+    <row r="88" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A88" s="12" t="s">
-        <v>103</v>
+        <v>153</v>
       </c>
       <c r="B88" s="18" t="s">
         <v>9</v>
@@ -6599,9 +6659,9 @@
       <c r="AA88" s="17"/>
       <c r="AB88" s="17"/>
     </row>
-    <row r="89" spans="1:28" ht="15.75">
+    <row r="89" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A89" s="12" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="B89" s="18" t="s">
         <v>9</v>
@@ -6649,9 +6709,9 @@
       <c r="AA89" s="17"/>
       <c r="AB89" s="17"/>
     </row>
-    <row r="90" spans="1:28" ht="15.75">
+    <row r="90" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A90" s="12" t="s">
-        <v>105</v>
+        <v>154</v>
       </c>
       <c r="B90" s="31" t="s">
         <v>8</v>
@@ -6699,9 +6759,9 @@
       <c r="AA90" s="17"/>
       <c r="AB90" s="17"/>
     </row>
-    <row r="91" spans="1:28" ht="15.75">
+    <row r="91" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A91" s="12" t="s">
-        <v>106</v>
+        <v>155</v>
       </c>
       <c r="B91" s="18" t="s">
         <v>14</v>
@@ -6759,9 +6819,9 @@
         <v>2102</v>
       </c>
     </row>
-    <row r="92" spans="1:28" ht="15.75">
+    <row r="92" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A92" s="12" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="B92" s="18" t="s">
         <v>4</v>
@@ -6819,9 +6879,9 @@
         <v>164</v>
       </c>
     </row>
-    <row r="93" spans="1:28" ht="15.75">
+    <row r="93" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A93" s="12" t="s">
-        <v>108</v>
+        <v>156</v>
       </c>
       <c r="B93" s="18" t="s">
         <v>4</v>
@@ -6879,9 +6939,9 @@
         <v>1212</v>
       </c>
     </row>
-    <row r="94" spans="1:28" ht="15.75">
+    <row r="94" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A94" s="12" t="s">
-        <v>109</v>
+        <v>157</v>
       </c>
       <c r="B94" s="18" t="s">
         <v>4</v>
@@ -6939,9 +6999,9 @@
         <v>13.1</v>
       </c>
     </row>
-    <row r="95" spans="1:28" ht="15.75">
+    <row r="95" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A95" s="12" t="s">
-        <v>110</v>
+        <v>158</v>
       </c>
       <c r="B95" s="18" t="s">
         <v>5</v>
@@ -6999,12 +7059,12 @@
         <v>44.7</v>
       </c>
     </row>
-    <row r="96" spans="1:28" ht="31.5">
+    <row r="96" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A96" s="12" t="s">
-        <v>111</v>
+        <v>90</v>
       </c>
       <c r="B96" s="18" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="C96" s="10"/>
       <c r="D96" s="10"/>
@@ -7059,9 +7119,9 @@
         <v>2192</v>
       </c>
     </row>
-    <row r="97" spans="1:28" ht="15.75">
+    <row r="97" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A97" s="12" t="s">
-        <v>112</v>
+        <v>91</v>
       </c>
       <c r="B97" s="32" t="s">
         <v>10</v>
@@ -7145,9 +7205,9 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="98" spans="1:28" ht="15.75">
+    <row r="98" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A98" s="12" t="s">
-        <v>113</v>
+        <v>92</v>
       </c>
       <c r="B98" s="18" t="s">
         <v>9</v>
@@ -7205,12 +7265,12 @@
         <v>2717</v>
       </c>
     </row>
-    <row r="99" spans="1:28" ht="31.5">
+    <row r="99" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A99" s="12" t="s">
-        <v>114</v>
+        <v>93</v>
       </c>
       <c r="B99" s="18" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="C99" s="10"/>
       <c r="D99" s="10"/>
@@ -7265,9 +7325,9 @@
         <v>3357</v>
       </c>
     </row>
-    <row r="100" spans="1:28" ht="15.75">
+    <row r="100" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A100" s="12" t="s">
-        <v>115</v>
+        <v>94</v>
       </c>
       <c r="B100" s="25" t="s">
         <v>12</v>
@@ -7325,12 +7385,12 @@
         <v>4408</v>
       </c>
     </row>
-    <row r="101" spans="1:28" ht="31.5">
+    <row r="101" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A101" s="12" t="s">
-        <v>116</v>
+        <v>95</v>
       </c>
       <c r="B101" s="31" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="C101" s="15"/>
       <c r="D101" s="15"/>
@@ -7375,9 +7435,9 @@
       <c r="AA101" s="17"/>
       <c r="AB101" s="17"/>
     </row>
-    <row r="102" spans="1:28" ht="15.75">
+    <row r="102" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A102" s="12" t="s">
-        <v>117</v>
+        <v>96</v>
       </c>
       <c r="B102" s="18" t="s">
         <v>5</v>
@@ -7435,9 +7495,9 @@
         <v>27.8</v>
       </c>
     </row>
-    <row r="103" spans="1:28" ht="15.75">
+    <row r="103" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A103" s="12" t="s">
-        <v>118</v>
+        <v>97</v>
       </c>
       <c r="B103" s="25" t="s">
         <v>12</v>
@@ -7485,9 +7545,9 @@
       <c r="AA103" s="17"/>
       <c r="AB103" s="17"/>
     </row>
-    <row r="104" spans="1:28" ht="25.5" customHeight="1">
+    <row r="104" spans="1:28" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="12" t="s">
-        <v>119</v>
+        <v>159</v>
       </c>
       <c r="B104" s="18" t="s">
         <v>10</v>
@@ -7549,9 +7609,9 @@
         <v>21.9</v>
       </c>
     </row>
-    <row r="105" spans="1:28" ht="15.75">
+    <row r="105" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A105" s="12" t="s">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="B105" s="18" t="s">
         <v>10</v>
@@ -7609,9 +7669,9 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="106" spans="1:28" ht="15.75">
+    <row r="106" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A106" s="12" t="s">
-        <v>121</v>
+        <v>161</v>
       </c>
       <c r="B106" s="18" t="s">
         <v>10</v>
@@ -7673,9 +7733,9 @@
         <v>11.2</v>
       </c>
     </row>
-    <row r="107" spans="1:28" ht="15.75">
+    <row r="107" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A107" s="12" t="s">
-        <v>122</v>
+        <v>162</v>
       </c>
       <c r="B107" s="18" t="s">
         <v>10</v>
@@ -7737,9 +7797,9 @@
         <v>11.9</v>
       </c>
     </row>
-    <row r="108" spans="1:28" ht="15.75">
+    <row r="108" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A108" s="12" t="s">
-        <v>123</v>
+        <v>98</v>
       </c>
       <c r="B108" s="36" t="s">
         <v>10</v>
@@ -7823,9 +7883,9 @@
         <v>12.1</v>
       </c>
     </row>
-    <row r="109" spans="1:28" ht="15.75">
+    <row r="109" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A109" s="12" t="s">
-        <v>124</v>
+        <v>99</v>
       </c>
       <c r="B109" s="20" t="s">
         <v>9</v>
@@ -7894,24 +7954,24 @@
         <v>1957</v>
       </c>
       <c r="X109" s="8">
-        <v>2.4</v>
+        <v>2400</v>
       </c>
       <c r="Y109" s="8">
-        <v>2.2000000000000002</v>
+        <v>2200</v>
       </c>
       <c r="Z109" s="8">
-        <v>1.8</v>
+        <v>1800</v>
       </c>
       <c r="AA109" s="8">
-        <v>1.6</v>
+        <v>1600</v>
       </c>
       <c r="AB109" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="110" spans="1:28" ht="15.75">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="110" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A110" s="12" t="s">
-        <v>125</v>
+        <v>163</v>
       </c>
       <c r="B110" s="20" t="s">
         <v>9</v>
@@ -7959,9 +8019,9 @@
       <c r="AA110" s="17"/>
       <c r="AB110" s="17"/>
     </row>
-    <row r="111" spans="1:28" ht="15.75">
+    <row r="111" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A111" s="12" t="s">
-        <v>126</v>
+        <v>100</v>
       </c>
       <c r="B111" s="20" t="s">
         <v>9</v>
@@ -8019,9 +8079,9 @@
         <v>268</v>
       </c>
     </row>
-    <row r="112" spans="1:28" ht="15.75">
+    <row r="112" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A112" s="12" t="s">
-        <v>128</v>
+        <v>102</v>
       </c>
       <c r="B112" s="31" t="s">
         <v>8</v>
@@ -8069,9 +8129,9 @@
       <c r="AA112" s="17"/>
       <c r="AB112" s="17"/>
     </row>
-    <row r="113" spans="1:28" ht="15.75">
+    <row r="113" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A113" s="12" t="s">
-        <v>127</v>
+        <v>101</v>
       </c>
       <c r="B113" s="18" t="s">
         <v>13</v>
@@ -8119,9 +8179,9 @@
       <c r="AA113" s="17"/>
       <c r="AB113" s="17"/>
     </row>
-    <row r="114" spans="1:28" ht="15.75">
+    <row r="114" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A114" s="12" t="s">
-        <v>129</v>
+        <v>103</v>
       </c>
       <c r="B114" s="31" t="s">
         <v>8</v>
@@ -8179,9 +8239,9 @@
         <v>94.8</v>
       </c>
     </row>
-    <row r="115" spans="1:28" ht="15.75">
+    <row r="115" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A115" s="12" t="s">
-        <v>130</v>
+        <v>104</v>
       </c>
       <c r="B115" s="18" t="s">
         <v>13</v>
@@ -8228,24 +8288,24 @@
         <v>5189</v>
       </c>
       <c r="X115" s="8">
-        <v>6.8</v>
+        <v>6800</v>
       </c>
       <c r="Y115" s="8">
-        <v>5.3</v>
+        <v>5300</v>
       </c>
       <c r="Z115" s="8">
-        <v>4.3</v>
+        <v>4300</v>
       </c>
       <c r="AA115" s="8">
-        <v>4.0999999999999996</v>
+        <v>4100</v>
       </c>
       <c r="AB115" s="8">
-        <v>4.2</v>
-      </c>
-    </row>
-    <row r="116" spans="1:28" ht="15.75">
+        <v>4200</v>
+      </c>
+    </row>
+    <row r="116" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A116" s="12" t="s">
-        <v>131</v>
+        <v>105</v>
       </c>
       <c r="B116" s="18" t="s">
         <v>13</v>
@@ -8288,24 +8348,24 @@
         <v>4825</v>
       </c>
       <c r="X116" s="8">
-        <v>7.4</v>
+        <v>7400</v>
       </c>
       <c r="Y116" s="8">
-        <v>1.6</v>
+        <v>1600</v>
       </c>
       <c r="Z116" s="7">
-        <v>2</v>
+        <v>2000</v>
       </c>
       <c r="AA116" s="7">
-        <v>2</v>
+        <v>2000</v>
       </c>
       <c r="AB116" s="8">
-        <v>2.2999999999999998</v>
-      </c>
-    </row>
-    <row r="117" spans="1:28" ht="15.75">
+        <v>2300</v>
+      </c>
+    </row>
+    <row r="117" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A117" s="12" t="s">
-        <v>132</v>
+        <v>106</v>
       </c>
       <c r="B117" s="18" t="s">
         <v>8</v>
@@ -8363,9 +8423,9 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="118" spans="1:28" ht="25.5" customHeight="1">
+    <row r="118" spans="1:28" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="12" t="s">
-        <v>133</v>
+        <v>107</v>
       </c>
       <c r="B118" s="18" t="s">
         <v>8</v>
@@ -8427,9 +8487,9 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="119" spans="1:28" ht="15.75">
+    <row r="119" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A119" s="12" t="s">
-        <v>134</v>
+        <v>108</v>
       </c>
       <c r="B119" s="18" t="s">
         <v>8</v>
@@ -8487,9 +8547,9 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="120" spans="1:28" ht="18">
+    <row r="120" spans="1:28" ht="19" x14ac:dyDescent="0.2">
       <c r="A120" s="12" t="s">
-        <v>135</v>
+        <v>109</v>
       </c>
       <c r="B120" s="18" t="s">
         <v>13</v>
@@ -8517,7 +8577,7 @@
         <v>308</v>
       </c>
       <c r="S120" s="5" t="s">
-        <v>169</v>
+        <v>132</v>
       </c>
       <c r="T120" s="5">
         <v>137</v>
@@ -8545,9 +8605,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="121" spans="1:28" ht="15.75">
+    <row r="121" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A121" s="12" t="s">
-        <v>136</v>
+        <v>164</v>
       </c>
       <c r="B121" s="18" t="s">
         <v>13</v>
@@ -8605,9 +8665,9 @@
         <v>38</v>
       </c>
     </row>
-    <row r="122" spans="1:28" ht="15.75">
+    <row r="122" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A122" s="12" t="s">
-        <v>137</v>
+        <v>110</v>
       </c>
       <c r="B122" s="18" t="s">
         <v>13</v>
@@ -8665,9 +8725,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="123" spans="1:28" ht="15.75">
+    <row r="123" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A123" s="12" t="s">
-        <v>138</v>
+        <v>111</v>
       </c>
       <c r="B123" s="18" t="s">
         <v>13</v>
@@ -8710,24 +8770,24 @@
         <v>1409</v>
       </c>
       <c r="X123" s="8">
-        <v>1.5</v>
+        <v>1500</v>
       </c>
       <c r="Y123" s="7">
-        <v>2</v>
+        <v>2000</v>
       </c>
       <c r="Z123" s="8">
-        <v>1.3</v>
+        <v>1300</v>
       </c>
       <c r="AA123" s="7">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="AB123" s="8">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="124" spans="1:28" ht="15.75">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="124" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A124" s="12" t="s">
-        <v>139</v>
+        <v>112</v>
       </c>
       <c r="B124" s="18" t="s">
         <v>8</v>
@@ -8785,9 +8845,9 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="125" spans="1:28" ht="15.75">
+    <row r="125" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A125" s="12" t="s">
-        <v>140</v>
+        <v>113</v>
       </c>
       <c r="B125" s="18" t="s">
         <v>8</v>
@@ -8845,9 +8905,9 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="126" spans="1:28" ht="15.75">
+    <row r="126" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A126" s="12" t="s">
-        <v>141</v>
+        <v>114</v>
       </c>
       <c r="B126" s="18" t="s">
         <v>13</v>
@@ -8890,24 +8950,24 @@
         <v>1764</v>
       </c>
       <c r="X126" s="8">
-        <v>1.7</v>
+        <v>1700</v>
       </c>
       <c r="Y126" s="8">
-        <v>1.9</v>
+        <v>1900</v>
       </c>
       <c r="Z126" s="8">
-        <v>0.9</v>
+        <v>900</v>
       </c>
       <c r="AA126" s="8">
-        <v>0.5</v>
+        <v>500</v>
       </c>
       <c r="AB126" s="8">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="127" spans="1:28" ht="15.75">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="127" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A127" s="12" t="s">
-        <v>142</v>
+        <v>165</v>
       </c>
       <c r="B127" s="18" t="s">
         <v>13</v>
@@ -8963,9 +9023,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="128" spans="1:28" ht="15.75">
+    <row r="128" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A128" s="12" t="s">
-        <v>143</v>
+        <v>115</v>
       </c>
       <c r="B128" s="18" t="s">
         <v>13</v>
@@ -9007,25 +9067,15 @@
       <c r="W128" s="6">
         <v>8378</v>
       </c>
-      <c r="X128" s="7">
-        <v>11</v>
-      </c>
-      <c r="Y128" s="8">
-        <v>33.6</v>
-      </c>
-      <c r="Z128" s="8">
-        <v>18.899999999999999</v>
-      </c>
-      <c r="AA128" s="8">
-        <v>10.3</v>
-      </c>
-      <c r="AB128" s="8">
-        <v>11.1</v>
-      </c>
-    </row>
-    <row r="129" spans="1:28" ht="15.75">
+      <c r="X128" s="7"/>
+      <c r="Y128" s="8"/>
+      <c r="Z128" s="8"/>
+      <c r="AA128" s="8"/>
+      <c r="AB128" s="8"/>
+    </row>
+    <row r="129" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A129" s="12" t="s">
-        <v>144</v>
+        <v>116</v>
       </c>
       <c r="B129" s="22" t="s">
         <v>8</v>
@@ -9073,9 +9123,9 @@
       <c r="AA129" s="17"/>
       <c r="AB129" s="17"/>
     </row>
-    <row r="130" spans="1:28" ht="15.75">
+    <row r="130" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A130" s="12" t="s">
-        <v>145</v>
+        <v>117</v>
       </c>
       <c r="B130" s="22" t="s">
         <v>8</v>
@@ -9149,9 +9199,9 @@
       <c r="AA130" s="17"/>
       <c r="AB130" s="17"/>
     </row>
-    <row r="131" spans="1:28" ht="15.75">
+    <row r="131" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A131" s="12" t="s">
-        <v>146</v>
+        <v>118</v>
       </c>
       <c r="B131" s="18" t="s">
         <v>8</v>
@@ -9203,9 +9253,9 @@
       <c r="AA131" s="8"/>
       <c r="AB131" s="8"/>
     </row>
-    <row r="132" spans="1:28" ht="31.5">
+    <row r="132" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A132" s="21" t="s">
-        <v>147</v>
+        <v>119</v>
       </c>
       <c r="B132" s="18" t="s">
         <v>8</v>
@@ -9263,9 +9313,9 @@
         <v>18.2</v>
       </c>
     </row>
-    <row r="133" spans="1:28" ht="47.25">
+    <row r="133" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A133" s="21" t="s">
-        <v>148</v>
+        <v>166</v>
       </c>
       <c r="B133" s="18" t="s">
         <v>8</v>
@@ -9323,9 +9373,9 @@
         <v>243</v>
       </c>
     </row>
-    <row r="134" spans="1:28" ht="15.75">
+    <row r="134" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A134" s="21" t="s">
-        <v>149</v>
+        <v>120</v>
       </c>
       <c r="B134" s="18" t="s">
         <v>4</v>
@@ -9383,9 +9433,9 @@
         <v>7.1</v>
       </c>
     </row>
-    <row r="135" spans="1:28" ht="31.5">
+    <row r="135" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A135" s="21" t="s">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="B135" s="18" t="s">
         <v>8</v>
@@ -9443,9 +9493,9 @@
         <v>203</v>
       </c>
     </row>
-    <row r="136" spans="1:28" ht="31.5">
+    <row r="136" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A136" s="21" t="s">
-        <v>151</v>
+        <v>168</v>
       </c>
       <c r="B136" s="18" t="s">
         <v>4</v>
@@ -9487,25 +9537,15 @@
       <c r="W136" s="6">
         <v>52.8</v>
       </c>
-      <c r="X136" s="8">
-        <v>11.4</v>
-      </c>
-      <c r="Y136" s="8">
-        <v>16.899999999999999</v>
-      </c>
-      <c r="Z136" s="8">
-        <v>10.8</v>
-      </c>
-      <c r="AA136" s="8">
-        <v>7.9</v>
-      </c>
-      <c r="AB136" s="8">
-        <v>6.9</v>
-      </c>
-    </row>
-    <row r="137" spans="1:28" ht="15.75">
+      <c r="X136" s="8"/>
+      <c r="Y136" s="8"/>
+      <c r="Z136" s="8"/>
+      <c r="AA136" s="8"/>
+      <c r="AB136" s="8"/>
+    </row>
+    <row r="137" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A137" s="21" t="s">
-        <v>152</v>
+        <v>169</v>
       </c>
       <c r="B137" s="18" t="s">
         <v>8</v>
@@ -9563,9 +9603,9 @@
         <v>4.3</v>
       </c>
     </row>
-    <row r="138" spans="1:28" ht="47.25">
+    <row r="138" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A138" s="21" t="s">
-        <v>153</v>
+        <v>170</v>
       </c>
       <c r="B138" s="39" t="s">
         <v>8</v>
@@ -9613,9 +9653,9 @@
       <c r="AA138" s="17"/>
       <c r="AB138" s="17"/>
     </row>
-    <row r="139" spans="1:28" ht="47.25">
+    <row r="139" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A139" s="21" t="s">
-        <v>154</v>
+        <v>171</v>
       </c>
       <c r="B139" s="18" t="s">
         <v>15</v>
@@ -9663,9 +9703,9 @@
       <c r="AA139" s="17"/>
       <c r="AB139" s="17"/>
     </row>
-    <row r="140" spans="1:28" ht="15.75">
+    <row r="140" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A140" s="21" t="s">
-        <v>155</v>
+        <v>121</v>
       </c>
       <c r="B140" s="18" t="s">
         <v>8</v>
@@ -9713,9 +9753,9 @@
       <c r="AA140" s="8"/>
       <c r="AB140" s="17"/>
     </row>
-    <row r="141" spans="1:28" ht="15.75">
+    <row r="141" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A141" s="12" t="s">
-        <v>156</v>
+        <v>172</v>
       </c>
       <c r="B141" s="18" t="s">
         <v>8</v>
@@ -9763,9 +9803,9 @@
       <c r="AA141" s="17"/>
       <c r="AB141" s="17"/>
     </row>
-    <row r="142" spans="1:28" ht="15.75">
+    <row r="142" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A142" s="12" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
       <c r="B142" s="18" t="s">
         <v>8</v>
@@ -9808,24 +9848,24 @@
         <v>1726</v>
       </c>
       <c r="X142" s="8">
-        <v>1.7</v>
+        <v>1700</v>
       </c>
       <c r="Y142" s="8">
-        <v>1.9</v>
+        <v>1900</v>
       </c>
       <c r="Z142" s="8">
-        <v>1.7</v>
+        <v>1700</v>
       </c>
       <c r="AA142" s="8">
-        <v>1.5</v>
+        <v>1500</v>
       </c>
       <c r="AB142" s="8">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="143" spans="1:28" ht="15.75">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="143" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A143" s="12" t="s">
-        <v>158</v>
+        <v>122</v>
       </c>
       <c r="B143" s="18" t="s">
         <v>8</v>
@@ -9883,9 +9923,9 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="144" spans="1:28" ht="15.75">
+    <row r="144" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A144" s="12" t="s">
-        <v>166</v>
+        <v>129</v>
       </c>
       <c r="B144" s="18" t="s">
         <v>8</v>
@@ -9967,9 +10007,9 @@
       </c>
       <c r="AB144" s="17"/>
     </row>
-    <row r="145" spans="1:28" ht="15.75">
+    <row r="145" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A145" s="12" t="s">
-        <v>159</v>
+        <v>123</v>
       </c>
       <c r="B145" s="18" t="s">
         <v>8</v>
@@ -10031,9 +10071,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:28" ht="15.75">
+    <row r="146" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A146" s="12" t="s">
-        <v>160</v>
+        <v>124</v>
       </c>
       <c r="B146" s="18" t="s">
         <v>8</v>
@@ -10091,9 +10131,9 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="147" spans="1:28" ht="15.75">
+    <row r="147" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A147" s="12" t="s">
-        <v>161</v>
+        <v>125</v>
       </c>
       <c r="B147" s="18" t="s">
         <v>8</v>
@@ -10151,65 +10191,293 @@
         <v>34.700000000000003</v>
       </c>
     </row>
-    <row r="148" spans="1:28" ht="15.75">
+    <row r="148" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A148" s="12" t="s">
-        <v>162</v>
+        <v>126</v>
       </c>
       <c r="B148" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C148" s="4"/>
-      <c r="D148" s="4"/>
-      <c r="E148" s="4"/>
-      <c r="F148" s="4"/>
-      <c r="G148" s="4"/>
-      <c r="H148" s="4"/>
-      <c r="I148" s="4"/>
-      <c r="J148" s="4"/>
-      <c r="K148" s="4"/>
-      <c r="L148" s="4"/>
-      <c r="M148" s="4"/>
-      <c r="N148" s="4"/>
-      <c r="O148" s="4"/>
-      <c r="P148" s="5">
+      <c r="C148" s="10"/>
+      <c r="D148" s="10"/>
+      <c r="E148" s="10"/>
+      <c r="F148" s="10"/>
+      <c r="G148" s="10"/>
+      <c r="H148" s="10"/>
+      <c r="I148" s="10"/>
+      <c r="J148" s="10"/>
+      <c r="K148" s="10"/>
+      <c r="L148" s="10"/>
+      <c r="M148" s="10"/>
+      <c r="N148" s="10"/>
+      <c r="O148" s="10"/>
+      <c r="P148" s="11">
         <v>22.7</v>
       </c>
-      <c r="Q148" s="5">
+      <c r="Q148" s="11">
         <v>23</v>
       </c>
-      <c r="R148" s="5">
+      <c r="R148" s="11">
         <v>21.6</v>
       </c>
-      <c r="S148" s="5">
+      <c r="S148" s="11">
         <v>19.899999999999999</v>
       </c>
-      <c r="T148" s="5">
+      <c r="T148" s="11">
         <v>31.5</v>
       </c>
-      <c r="U148" s="5">
+      <c r="U148" s="11">
         <v>30.2</v>
       </c>
-      <c r="V148" s="5">
+      <c r="V148" s="11">
         <v>12.7</v>
       </c>
-      <c r="W148" s="6">
+      <c r="W148" s="33">
         <v>39.6</v>
       </c>
-      <c r="X148" s="8">
+      <c r="X148" s="42">
         <v>52.7</v>
       </c>
-      <c r="Y148" s="8">
+      <c r="Y148" s="42">
         <v>47.8</v>
       </c>
-      <c r="Z148" s="8">
+      <c r="Z148" s="42">
         <v>25.3</v>
       </c>
-      <c r="AA148" s="8">
+      <c r="AA148" s="42">
         <v>6.2</v>
       </c>
-      <c r="AB148" s="8">
+      <c r="AB148" s="42">
         <v>1.4</v>
       </c>
+    </row>
+    <row r="149" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+      <c r="A149" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="B149" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="C149" s="43">
+        <v>59</v>
+      </c>
+      <c r="D149" s="43"/>
+      <c r="E149" s="43"/>
+      <c r="F149" s="43"/>
+      <c r="G149" s="43"/>
+      <c r="H149" s="43"/>
+      <c r="I149" s="43"/>
+      <c r="J149" s="43"/>
+      <c r="K149" s="43"/>
+      <c r="L149" s="43"/>
+      <c r="M149" s="43">
+        <v>9.1</v>
+      </c>
+      <c r="N149" s="43"/>
+      <c r="O149" s="43"/>
+      <c r="P149" s="43"/>
+      <c r="Q149" s="43"/>
+      <c r="R149" s="43"/>
+      <c r="S149" s="43"/>
+      <c r="T149" s="43"/>
+      <c r="U149" s="43"/>
+      <c r="V149" s="43"/>
+      <c r="W149" s="44">
+        <v>10.9</v>
+      </c>
+      <c r="X149" s="8">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="Y149" s="8">
+        <v>4.3</v>
+      </c>
+      <c r="Z149" s="8">
+        <v>3.5</v>
+      </c>
+      <c r="AA149" s="43"/>
+      <c r="AB149" s="43"/>
+    </row>
+    <row r="150" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+      <c r="A150" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="B150" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="C150" s="43">
+        <v>411</v>
+      </c>
+      <c r="D150" s="43"/>
+      <c r="E150" s="43"/>
+      <c r="F150" s="43"/>
+      <c r="G150" s="43"/>
+      <c r="H150" s="43"/>
+      <c r="I150" s="43"/>
+      <c r="J150" s="43"/>
+      <c r="K150" s="43"/>
+      <c r="L150" s="43"/>
+      <c r="M150" s="43">
+        <v>170</v>
+      </c>
+      <c r="N150" s="43"/>
+      <c r="O150" s="43"/>
+      <c r="P150" s="43"/>
+      <c r="Q150" s="43"/>
+      <c r="R150" s="43"/>
+      <c r="S150" s="43"/>
+      <c r="T150" s="43"/>
+      <c r="U150" s="43"/>
+      <c r="V150" s="43"/>
+      <c r="W150" s="44">
+        <v>197</v>
+      </c>
+      <c r="X150" s="8">
+        <v>175</v>
+      </c>
+      <c r="Y150" s="8">
+        <v>171</v>
+      </c>
+      <c r="Z150" s="8">
+        <v>168</v>
+      </c>
+      <c r="AA150" s="43"/>
+      <c r="AB150" s="43"/>
+    </row>
+    <row r="151" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+      <c r="A151" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="B151" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C151" s="43">
+        <v>3774</v>
+      </c>
+      <c r="D151" s="43"/>
+      <c r="E151" s="43"/>
+      <c r="F151" s="43"/>
+      <c r="G151" s="43"/>
+      <c r="H151" s="43"/>
+      <c r="I151" s="43"/>
+      <c r="J151" s="43"/>
+      <c r="K151" s="43"/>
+      <c r="L151" s="43"/>
+      <c r="M151" s="43">
+        <v>62.4</v>
+      </c>
+      <c r="N151" s="43"/>
+      <c r="O151" s="43"/>
+      <c r="P151" s="43"/>
+      <c r="Q151" s="43"/>
+      <c r="R151" s="43"/>
+      <c r="S151" s="43"/>
+      <c r="T151" s="43"/>
+      <c r="U151" s="43"/>
+      <c r="V151" s="43"/>
+      <c r="W151" s="44">
+        <v>69.3</v>
+      </c>
+      <c r="X151" s="8">
+        <v>165</v>
+      </c>
+      <c r="Y151" s="8">
+        <v>391</v>
+      </c>
+      <c r="Z151" s="8">
+        <v>315</v>
+      </c>
+      <c r="AA151" s="43"/>
+      <c r="AB151" s="43"/>
+    </row>
+    <row r="152" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+      <c r="A152" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="B152" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C152" s="43">
+        <v>1984</v>
+      </c>
+      <c r="D152" s="43"/>
+      <c r="E152" s="43"/>
+      <c r="F152" s="43"/>
+      <c r="G152" s="43"/>
+      <c r="H152" s="43"/>
+      <c r="I152" s="43"/>
+      <c r="J152" s="43"/>
+      <c r="K152" s="43"/>
+      <c r="L152" s="43"/>
+      <c r="M152" s="43">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="N152" s="43"/>
+      <c r="O152" s="43"/>
+      <c r="P152" s="43"/>
+      <c r="Q152" s="43"/>
+      <c r="R152" s="43"/>
+      <c r="S152" s="43"/>
+      <c r="T152" s="43"/>
+      <c r="U152" s="43"/>
+      <c r="V152" s="43"/>
+      <c r="W152" s="44">
+        <v>111</v>
+      </c>
+      <c r="X152" s="8">
+        <v>164</v>
+      </c>
+      <c r="Y152" s="8">
+        <v>138</v>
+      </c>
+      <c r="Z152" s="8">
+        <v>106</v>
+      </c>
+      <c r="AA152" s="43"/>
+      <c r="AB152" s="43"/>
+    </row>
+    <row r="153" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+      <c r="A153" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="B153" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C153" s="12">
+        <v>3479</v>
+      </c>
+      <c r="D153" s="12"/>
+      <c r="E153" s="12"/>
+      <c r="F153" s="12"/>
+      <c r="G153" s="12"/>
+      <c r="H153" s="12"/>
+      <c r="I153" s="12"/>
+      <c r="J153" s="12"/>
+      <c r="K153" s="12"/>
+      <c r="L153" s="12"/>
+      <c r="M153" s="12"/>
+      <c r="N153" s="12"/>
+      <c r="O153" s="12"/>
+      <c r="P153" s="12"/>
+      <c r="Q153" s="12"/>
+      <c r="R153" s="12"/>
+      <c r="S153" s="12"/>
+      <c r="T153" s="12"/>
+      <c r="U153" s="12"/>
+      <c r="V153" s="12"/>
+      <c r="W153" s="12">
+        <v>225</v>
+      </c>
+      <c r="X153" s="12">
+        <v>81.7</v>
+      </c>
+      <c r="Y153" s="12">
+        <v>106</v>
+      </c>
+      <c r="Z153" s="12">
+        <v>95.4</v>
+      </c>
+      <c r="AA153" s="12"/>
+      <c r="AB153" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10218,28 +10486,33 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" ht="15.75">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>164</v>
+        <v>175</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -10249,12 +10522,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Data/Processing industry_fin.xlsx
+++ b/Data/Processing industry_fin.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="28109"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aleksandr/Documents/GIT/Privatization-in-Ukraine.-1992-2015/Data/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1560" windowWidth="22580" windowHeight="10140"/>
+    <workbookView xWindow="-2010" yWindow="1560" windowWidth="15255" windowHeight="5385"/>
   </bookViews>
   <sheets>
     <sheet name="processing industry" sheetId="1" r:id="rId1"/>
@@ -17,14 +12,6 @@
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -600,11 +587,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -663,6 +650,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
       <sz val="7.5"/>
       <color theme="1"/>
       <name val="Verdana"/>
@@ -685,7 +679,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -773,42 +767,42 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -847,14 +841,14 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right/>
       <top style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -872,24 +866,33 @@
     <border>
       <left/>
       <right style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -897,7 +900,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1015,28 +1018,33 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1074,14 +1082,14 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="DengXian Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -1108,15 +1116,14 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="DengXian"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -1143,10 +1150,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1319,23 +1325,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB153"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AB154"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A143" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A153" sqref="A153"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A146" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="V152" sqref="V152"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="66.5" customWidth="1"/>
-    <col min="2" max="2" width="26.5" customWidth="1"/>
+    <col min="1" max="1" width="66.42578125" customWidth="1"/>
+    <col min="2" max="2" width="26.5703125" customWidth="1"/>
     <col min="3" max="3" width="10" customWidth="1"/>
-    <col min="4" max="23" width="9.1640625" customWidth="1"/>
+    <col min="4" max="23" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:28" ht="15.75">
       <c r="A1" s="19"/>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -1419,7 +1425,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="2" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:28" ht="15.75">
       <c r="A2" s="12" t="s">
         <v>17</v>
       </c>
@@ -1479,7 +1485,7 @@
         <v>50.7</v>
       </c>
     </row>
-    <row r="3" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:28" ht="15.75">
       <c r="A3" s="12" t="s">
         <v>18</v>
       </c>
@@ -1539,7 +1545,7 @@
         <v>20.7</v>
       </c>
     </row>
-    <row r="4" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:28" ht="15.75">
       <c r="A4" s="12" t="s">
         <v>19</v>
       </c>
@@ -1599,7 +1605,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="5" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" ht="15.75">
       <c r="A5" s="12" t="s">
         <v>20</v>
       </c>
@@ -1659,7 +1665,7 @@
         <v>15.7</v>
       </c>
     </row>
-    <row r="6" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" ht="15.75">
       <c r="A6" s="12" t="s">
         <v>21</v>
       </c>
@@ -1719,7 +1725,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="7" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" ht="15.75">
       <c r="A7" s="12" t="s">
         <v>22</v>
       </c>
@@ -1779,7 +1785,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="8" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" ht="15.75">
       <c r="A8" s="12" t="s">
         <v>23</v>
       </c>
@@ -1865,7 +1871,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="9" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" ht="15.75">
       <c r="A9" s="12" t="s">
         <v>24</v>
       </c>
@@ -1925,7 +1931,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="10" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28" ht="15.75">
       <c r="A10" s="12" t="s">
         <v>25</v>
       </c>
@@ -1985,7 +1991,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="11" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28" ht="15.75">
       <c r="A11" s="12" t="s">
         <v>26</v>
       </c>
@@ -2071,7 +2077,7 @@
         <v>3715</v>
       </c>
     </row>
-    <row r="12" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:28" ht="15.75">
       <c r="A12" s="1" t="s">
         <v>27</v>
       </c>
@@ -2131,7 +2137,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="13" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:28" ht="15.75">
       <c r="A13" s="1" t="s">
         <v>131</v>
       </c>
@@ -2191,50 +2197,50 @@
         <v>970</v>
       </c>
     </row>
-    <row r="14" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:28" ht="15.75">
       <c r="A14" s="12" t="s">
         <v>28</v>
       </c>
       <c r="B14" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C14" s="45">
+      <c r="C14" s="49">
         <v>444</v>
       </c>
-      <c r="D14" s="46">
+      <c r="D14" s="50">
         <v>376</v>
       </c>
-      <c r="E14" s="46">
+      <c r="E14" s="50">
         <v>303</v>
       </c>
-      <c r="F14" s="45">
+      <c r="F14" s="49">
         <v>312</v>
       </c>
-      <c r="G14" s="45">
+      <c r="G14" s="49">
         <v>254</v>
       </c>
-      <c r="H14" s="45">
+      <c r="H14" s="49">
         <v>222</v>
       </c>
-      <c r="I14" s="46">
+      <c r="I14" s="50">
         <v>163</v>
       </c>
-      <c r="J14" s="46">
+      <c r="J14" s="50">
         <v>117</v>
       </c>
-      <c r="K14" s="45">
+      <c r="K14" s="49">
         <v>113</v>
       </c>
-      <c r="L14" s="45">
+      <c r="L14" s="49">
         <v>109</v>
       </c>
-      <c r="M14" s="46">
+      <c r="M14" s="50">
         <v>135</v>
       </c>
-      <c r="N14" s="45">
+      <c r="N14" s="49">
         <v>158</v>
       </c>
-      <c r="O14" s="45">
+      <c r="O14" s="49">
         <v>131</v>
       </c>
       <c r="P14" s="5">
@@ -2277,7 +2283,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="15" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:28" ht="15.75">
       <c r="A15" s="12" t="s">
         <v>29</v>
       </c>
@@ -2325,7 +2331,7 @@
       <c r="AA15" s="17"/>
       <c r="AB15" s="17"/>
     </row>
-    <row r="16" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:28" ht="15.75">
       <c r="A16" s="12" t="s">
         <v>30</v>
       </c>
@@ -2385,7 +2391,7 @@
         <v>67.8</v>
       </c>
     </row>
-    <row r="17" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:28" ht="15.75">
       <c r="A17" s="12" t="s">
         <v>31</v>
       </c>
@@ -2449,7 +2455,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="18" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:28" ht="15.75">
       <c r="A18" s="12" t="s">
         <v>32</v>
       </c>
@@ -2509,7 +2515,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="19" spans="1:28" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:28" ht="25.5" customHeight="1">
       <c r="A19" s="12" t="s">
         <v>33</v>
       </c>
@@ -2573,7 +2579,7 @@
         <v>2167</v>
       </c>
     </row>
-    <row r="20" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:28" ht="15.75">
       <c r="A20" s="12" t="s">
         <v>34</v>
       </c>
@@ -2633,7 +2639,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="21" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:28" ht="15.75">
       <c r="A21" s="12" t="s">
         <v>35</v>
       </c>
@@ -2693,7 +2699,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="22" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:28" ht="15.75">
       <c r="A22" s="12" t="s">
         <v>36</v>
       </c>
@@ -2753,7 +2759,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="23" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:28" ht="15.75">
       <c r="A23" s="12" t="s">
         <v>37</v>
       </c>
@@ -2839,7 +2845,7 @@
         <v>1459</v>
       </c>
     </row>
-    <row r="24" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:28" ht="15.75">
       <c r="A24" s="12" t="s">
         <v>38</v>
       </c>
@@ -2899,7 +2905,7 @@
         <v>1459</v>
       </c>
     </row>
-    <row r="25" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:28" ht="15.75">
       <c r="A25" s="12" t="s">
         <v>39</v>
       </c>
@@ -2959,7 +2965,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="26" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:28" ht="15.75">
       <c r="A26" s="12" t="s">
         <v>40</v>
       </c>
@@ -3019,7 +3025,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="27" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:28" ht="15.75">
       <c r="A27" s="12" t="s">
         <v>41</v>
       </c>
@@ -3079,7 +3085,7 @@
         <v>89.5</v>
       </c>
     </row>
-    <row r="28" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:28" ht="15.75">
       <c r="A28" s="12" t="s">
         <v>42</v>
       </c>
@@ -3139,7 +3145,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="29" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:28" ht="15.75">
       <c r="A29" s="12" t="s">
         <v>43</v>
       </c>
@@ -3199,7 +3205,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:28" ht="15.75">
       <c r="A30" s="12" t="s">
         <v>44</v>
       </c>
@@ -3259,7 +3265,7 @@
         <v>18.600000000000001</v>
       </c>
     </row>
-    <row r="31" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:28" ht="15.75">
       <c r="A31" s="12" t="s">
         <v>138</v>
       </c>
@@ -3319,7 +3325,7 @@
         <v>8.6999999999999993</v>
       </c>
     </row>
-    <row r="32" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:28" ht="15.75">
       <c r="A32" s="12" t="s">
         <v>139</v>
       </c>
@@ -3369,7 +3375,7 @@
       <c r="AA32" s="17"/>
       <c r="AB32" s="17"/>
     </row>
-    <row r="33" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:28" ht="15.75">
       <c r="A33" s="12" t="s">
         <v>45</v>
       </c>
@@ -3433,7 +3439,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="34" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:28" ht="15.75">
       <c r="A34" s="12" t="s">
         <v>46</v>
       </c>
@@ -3497,7 +3503,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="35" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:28" ht="15.75">
       <c r="A35" s="12" t="s">
         <v>47</v>
       </c>
@@ -3557,7 +3563,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="36" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:28" ht="15.75">
       <c r="A36" s="12" t="s">
         <v>48</v>
       </c>
@@ -3617,7 +3623,7 @@
         <v>72.8</v>
       </c>
     </row>
-    <row r="37" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:28" ht="15.75">
       <c r="A37" s="12" t="s">
         <v>49</v>
       </c>
@@ -3681,7 +3687,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="38" spans="1:28" ht="32" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:28" ht="31.5">
       <c r="A38" s="20" t="s">
         <v>130</v>
       </c>
@@ -3741,7 +3747,7 @@
         <v>92.9</v>
       </c>
     </row>
-    <row r="39" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:28" ht="15.75">
       <c r="A39" s="12" t="s">
         <v>50</v>
       </c>
@@ -3801,7 +3807,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="40" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:28" ht="15.75">
       <c r="A40" s="12" t="s">
         <v>51</v>
       </c>
@@ -3887,7 +3893,7 @@
         <v>86.3</v>
       </c>
     </row>
-    <row r="41" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:28" ht="15.75">
       <c r="A41" s="12" t="s">
         <v>52</v>
       </c>
@@ -3947,7 +3953,7 @@
         <v>9.8000000000000007</v>
       </c>
     </row>
-    <row r="42" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:28" ht="15.75">
       <c r="A42" s="12" t="s">
         <v>53</v>
       </c>
@@ -4011,7 +4017,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="43" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:28" ht="15.75">
       <c r="A43" s="12" t="s">
         <v>54</v>
       </c>
@@ -4071,7 +4077,7 @@
         <v>19.5</v>
       </c>
     </row>
-    <row r="44" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:28" ht="15.75">
       <c r="A44" s="12" t="s">
         <v>55</v>
       </c>
@@ -4121,7 +4127,7 @@
       <c r="AA44" s="17"/>
       <c r="AB44" s="17"/>
     </row>
-    <row r="45" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:28" ht="15.75">
       <c r="A45" s="12" t="s">
         <v>56</v>
       </c>
@@ -4171,7 +4177,7 @@
       <c r="AA45" s="17"/>
       <c r="AB45" s="17"/>
     </row>
-    <row r="46" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:28" ht="15.75">
       <c r="A46" s="12" t="s">
         <v>57</v>
       </c>
@@ -4221,7 +4227,7 @@
       <c r="AA46" s="17"/>
       <c r="AB46" s="17"/>
     </row>
-    <row r="47" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:28" ht="15.75">
       <c r="A47" s="12" t="s">
         <v>58</v>
       </c>
@@ -4281,7 +4287,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="48" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:28" ht="15.75">
       <c r="A48" s="12" t="s">
         <v>59</v>
       </c>
@@ -4341,7 +4347,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="49" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:28" ht="15.75">
       <c r="A49" s="12" t="s">
         <v>140</v>
       </c>
@@ -4391,7 +4397,7 @@
       <c r="AA49" s="17"/>
       <c r="AB49" s="17"/>
     </row>
-    <row r="50" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:28" ht="15.75">
       <c r="A50" s="12" t="s">
         <v>60</v>
       </c>
@@ -4441,7 +4447,7 @@
       <c r="AA50" s="17"/>
       <c r="AB50" s="17"/>
     </row>
-    <row r="51" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:28" ht="15.75">
       <c r="A51" s="12" t="s">
         <v>141</v>
       </c>
@@ -4491,7 +4497,7 @@
       <c r="AA51" s="17"/>
       <c r="AB51" s="17"/>
     </row>
-    <row r="52" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:28" ht="15.75">
       <c r="A52" s="12" t="s">
         <v>142</v>
       </c>
@@ -4541,7 +4547,7 @@
       <c r="AA52" s="17"/>
       <c r="AB52" s="17"/>
     </row>
-    <row r="53" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:28" ht="15.75">
       <c r="A53" s="12" t="s">
         <v>61</v>
       </c>
@@ -4591,7 +4597,7 @@
       <c r="AA53" s="17"/>
       <c r="AB53" s="17"/>
     </row>
-    <row r="54" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:28" ht="15.75">
       <c r="A54" s="12" t="s">
         <v>62</v>
       </c>
@@ -4641,7 +4647,7 @@
       <c r="AA54" s="17"/>
       <c r="AB54" s="17"/>
     </row>
-    <row r="55" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:28" ht="15.75">
       <c r="A55" s="12" t="s">
         <v>63</v>
       </c>
@@ -4691,7 +4697,7 @@
       <c r="AA55" s="17"/>
       <c r="AB55" s="17"/>
     </row>
-    <row r="56" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:28" ht="15.75">
       <c r="A56" s="12" t="s">
         <v>64</v>
       </c>
@@ -4741,7 +4747,7 @@
       <c r="AA56" s="17"/>
       <c r="AB56" s="17"/>
     </row>
-    <row r="57" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:28" ht="15.75">
       <c r="A57" s="12" t="s">
         <v>143</v>
       </c>
@@ -4801,7 +4807,7 @@
         <v>8.1</v>
       </c>
     </row>
-    <row r="58" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:28" ht="15.75">
       <c r="A58" s="12" t="s">
         <v>65</v>
       </c>
@@ -4861,7 +4867,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="59" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:28" ht="15.75">
       <c r="A59" s="12" t="s">
         <v>66</v>
       </c>
@@ -4921,7 +4927,7 @@
         <v>1917</v>
       </c>
     </row>
-    <row r="60" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:28" ht="15.75">
       <c r="A60" s="12" t="s">
         <v>144</v>
       </c>
@@ -4981,7 +4987,7 @@
         <v>69.099999999999994</v>
       </c>
     </row>
-    <row r="61" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:28" ht="15.75">
       <c r="A61" s="12" t="s">
         <v>67</v>
       </c>
@@ -5045,7 +5051,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="62" spans="1:28" ht="32" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:28" ht="31.5">
       <c r="A62" s="12" t="s">
         <v>68</v>
       </c>
@@ -5109,7 +5115,7 @@
         <v>1269</v>
       </c>
     </row>
-    <row r="63" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:28" ht="15.75">
       <c r="A63" s="12" t="s">
         <v>69</v>
       </c>
@@ -5159,7 +5165,7 @@
       <c r="AA63" s="17"/>
       <c r="AB63" s="17"/>
     </row>
-    <row r="64" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:28" ht="15.75">
       <c r="A64" s="12" t="s">
         <v>70</v>
       </c>
@@ -5209,7 +5215,7 @@
       <c r="AA64" s="17"/>
       <c r="AB64" s="17"/>
     </row>
-    <row r="65" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:28" ht="15.75">
       <c r="A65" s="12" t="s">
         <v>145</v>
       </c>
@@ -5269,7 +5275,7 @@
         <v>2366</v>
       </c>
     </row>
-    <row r="66" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:28" ht="15.75">
       <c r="A66" s="12" t="s">
         <v>71</v>
       </c>
@@ -5329,7 +5335,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="67" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:28" ht="15.75">
       <c r="A67" s="12" t="s">
         <v>146</v>
       </c>
@@ -5389,7 +5395,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="68" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:28" ht="15.75">
       <c r="A68" s="12" t="s">
         <v>72</v>
       </c>
@@ -5439,7 +5445,7 @@
       <c r="AA68" s="17"/>
       <c r="AB68" s="17"/>
     </row>
-    <row r="69" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:28" ht="15.75">
       <c r="A69" s="12" t="s">
         <v>147</v>
       </c>
@@ -5499,7 +5505,7 @@
         <v>78.400000000000006</v>
       </c>
     </row>
-    <row r="70" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:28" ht="31.5">
       <c r="A70" s="12" t="s">
         <v>73</v>
       </c>
@@ -5563,7 +5569,7 @@
         <v>56.9</v>
       </c>
     </row>
-    <row r="71" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:28" ht="15.75">
       <c r="A71" s="12" t="s">
         <v>76</v>
       </c>
@@ -5623,7 +5629,7 @@
         <v>10.1</v>
       </c>
     </row>
-    <row r="72" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:28" ht="15.75">
       <c r="A72" s="12" t="s">
         <v>77</v>
       </c>
@@ -5687,7 +5693,7 @@
         <v>11.6</v>
       </c>
     </row>
-    <row r="73" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:28" ht="15.75">
       <c r="A73" s="12" t="s">
         <v>78</v>
       </c>
@@ -5747,7 +5753,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="74" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:28" ht="15.75">
       <c r="A74" s="12" t="s">
         <v>79</v>
       </c>
@@ -5809,7 +5815,7 @@
       </c>
       <c r="AB74" s="17"/>
     </row>
-    <row r="75" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:28" ht="15.75">
       <c r="A75" s="12" t="s">
         <v>80</v>
       </c>
@@ -5871,7 +5877,7 @@
       </c>
       <c r="AB75" s="17"/>
     </row>
-    <row r="76" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:28" ht="15.75">
       <c r="A76" s="12" t="s">
         <v>81</v>
       </c>
@@ -5931,7 +5937,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="77" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:28" ht="15.75">
       <c r="A77" s="12" t="s">
         <v>148</v>
       </c>
@@ -5981,7 +5987,7 @@
       <c r="AA77" s="17"/>
       <c r="AB77" s="17"/>
     </row>
-    <row r="78" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:28" ht="15.75">
       <c r="A78" s="12" t="s">
         <v>82</v>
       </c>
@@ -6041,7 +6047,7 @@
         <v>73.400000000000006</v>
       </c>
     </row>
-    <row r="79" spans="1:28" ht="19" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:28" ht="18">
       <c r="A79" s="12" t="s">
         <v>149</v>
       </c>
@@ -6091,7 +6097,7 @@
       <c r="AA79" s="8"/>
       <c r="AB79" s="8"/>
     </row>
-    <row r="80" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:28" ht="15.75">
       <c r="A80" s="12" t="s">
         <v>83</v>
       </c>
@@ -6155,7 +6161,7 @@
         <v>24.2</v>
       </c>
     </row>
-    <row r="81" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:28" ht="15.75">
       <c r="A81" s="12" t="s">
         <v>84</v>
       </c>
@@ -6215,7 +6221,7 @@
         <v>7575</v>
       </c>
     </row>
-    <row r="82" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:28" ht="15.75">
       <c r="A82" s="12" t="s">
         <v>85</v>
       </c>
@@ -6277,7 +6283,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="83" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:28" ht="15.75">
       <c r="A83" s="12" t="s">
         <v>150</v>
       </c>
@@ -6337,7 +6343,7 @@
       <c r="AA83" s="17"/>
       <c r="AB83" s="17"/>
     </row>
-    <row r="84" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:28" ht="15.75">
       <c r="A84" s="12" t="s">
         <v>86</v>
       </c>
@@ -6387,7 +6393,7 @@
       <c r="AA84" s="17"/>
       <c r="AB84" s="17"/>
     </row>
-    <row r="85" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:28" ht="15.75">
       <c r="A85" s="12" t="s">
         <v>151</v>
       </c>
@@ -6447,7 +6453,7 @@
         <v>43.2</v>
       </c>
     </row>
-    <row r="86" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:28" ht="15.75">
       <c r="A86" s="12" t="s">
         <v>87</v>
       </c>
@@ -6533,7 +6539,7 @@
         <v>2168</v>
       </c>
     </row>
-    <row r="87" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:28" ht="15.75">
       <c r="A87" s="12" t="s">
         <v>152</v>
       </c>
@@ -6609,7 +6615,7 @@
       <c r="AA87" s="17"/>
       <c r="AB87" s="17"/>
     </row>
-    <row r="88" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:28" ht="15.75">
       <c r="A88" s="12" t="s">
         <v>153</v>
       </c>
@@ -6659,7 +6665,7 @@
       <c r="AA88" s="17"/>
       <c r="AB88" s="17"/>
     </row>
-    <row r="89" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:28" ht="15.75">
       <c r="A89" s="12" t="s">
         <v>88</v>
       </c>
@@ -6709,7 +6715,7 @@
       <c r="AA89" s="17"/>
       <c r="AB89" s="17"/>
     </row>
-    <row r="90" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:28" ht="15.75">
       <c r="A90" s="12" t="s">
         <v>154</v>
       </c>
@@ -6759,7 +6765,7 @@
       <c r="AA90" s="17"/>
       <c r="AB90" s="17"/>
     </row>
-    <row r="91" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:28" ht="15.75">
       <c r="A91" s="12" t="s">
         <v>155</v>
       </c>
@@ -6819,7 +6825,7 @@
         <v>2102</v>
       </c>
     </row>
-    <row r="92" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:28" ht="15.75">
       <c r="A92" s="12" t="s">
         <v>89</v>
       </c>
@@ -6879,7 +6885,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="93" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:28" ht="15.75">
       <c r="A93" s="12" t="s">
         <v>156</v>
       </c>
@@ -6939,7 +6945,7 @@
         <v>1212</v>
       </c>
     </row>
-    <row r="94" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:28" ht="15.75">
       <c r="A94" s="12" t="s">
         <v>157</v>
       </c>
@@ -6999,7 +7005,7 @@
         <v>13.1</v>
       </c>
     </row>
-    <row r="95" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:28" ht="15.75">
       <c r="A95" s="12" t="s">
         <v>158</v>
       </c>
@@ -7059,7 +7065,7 @@
         <v>44.7</v>
       </c>
     </row>
-    <row r="96" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:28" ht="31.5">
       <c r="A96" s="12" t="s">
         <v>90</v>
       </c>
@@ -7119,7 +7125,7 @@
         <v>2192</v>
       </c>
     </row>
-    <row r="97" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:28" ht="15.75">
       <c r="A97" s="12" t="s">
         <v>91</v>
       </c>
@@ -7205,7 +7211,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="98" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:28" ht="15.75">
       <c r="A98" s="12" t="s">
         <v>92</v>
       </c>
@@ -7265,7 +7271,7 @@
         <v>2717</v>
       </c>
     </row>
-    <row r="99" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:28" ht="31.5">
       <c r="A99" s="12" t="s">
         <v>93</v>
       </c>
@@ -7325,7 +7331,7 @@
         <v>3357</v>
       </c>
     </row>
-    <row r="100" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:28" ht="15.75">
       <c r="A100" s="12" t="s">
         <v>94</v>
       </c>
@@ -7385,7 +7391,7 @@
         <v>4408</v>
       </c>
     </row>
-    <row r="101" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:28" ht="31.5">
       <c r="A101" s="12" t="s">
         <v>95</v>
       </c>
@@ -7435,7 +7441,7 @@
       <c r="AA101" s="17"/>
       <c r="AB101" s="17"/>
     </row>
-    <row r="102" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:28" ht="15.75">
       <c r="A102" s="12" t="s">
         <v>96</v>
       </c>
@@ -7495,7 +7501,7 @@
         <v>27.8</v>
       </c>
     </row>
-    <row r="103" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:28" ht="15.75">
       <c r="A103" s="12" t="s">
         <v>97</v>
       </c>
@@ -7545,7 +7551,7 @@
       <c r="AA103" s="17"/>
       <c r="AB103" s="17"/>
     </row>
-    <row r="104" spans="1:28" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:28" ht="25.5" customHeight="1">
       <c r="A104" s="12" t="s">
         <v>159</v>
       </c>
@@ -7609,7 +7615,7 @@
         <v>21.9</v>
       </c>
     </row>
-    <row r="105" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:28" ht="15.75">
       <c r="A105" s="12" t="s">
         <v>160</v>
       </c>
@@ -7669,7 +7675,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="106" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:28" ht="15.75">
       <c r="A106" s="12" t="s">
         <v>161</v>
       </c>
@@ -7733,7 +7739,7 @@
         <v>11.2</v>
       </c>
     </row>
-    <row r="107" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:28" ht="15.75">
       <c r="A107" s="12" t="s">
         <v>162</v>
       </c>
@@ -7797,7 +7803,7 @@
         <v>11.9</v>
       </c>
     </row>
-    <row r="108" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:28" ht="15.75">
       <c r="A108" s="12" t="s">
         <v>98</v>
       </c>
@@ -7883,7 +7889,7 @@
         <v>12.1</v>
       </c>
     </row>
-    <row r="109" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:28" ht="15.75">
       <c r="A109" s="12" t="s">
         <v>99</v>
       </c>
@@ -7969,7 +7975,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="110" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:28" ht="15.75">
       <c r="A110" s="12" t="s">
         <v>163</v>
       </c>
@@ -8019,7 +8025,7 @@
       <c r="AA110" s="17"/>
       <c r="AB110" s="17"/>
     </row>
-    <row r="111" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:28" ht="15.75">
       <c r="A111" s="12" t="s">
         <v>100</v>
       </c>
@@ -8079,7 +8085,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="112" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:28" ht="15.75">
       <c r="A112" s="12" t="s">
         <v>102</v>
       </c>
@@ -8129,7 +8135,7 @@
       <c r="AA112" s="17"/>
       <c r="AB112" s="17"/>
     </row>
-    <row r="113" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:28" ht="15.75">
       <c r="A113" s="12" t="s">
         <v>101</v>
       </c>
@@ -8179,7 +8185,7 @@
       <c r="AA113" s="17"/>
       <c r="AB113" s="17"/>
     </row>
-    <row r="114" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:28" ht="15.75">
       <c r="A114" s="12" t="s">
         <v>103</v>
       </c>
@@ -8239,7 +8245,7 @@
         <v>94.8</v>
       </c>
     </row>
-    <row r="115" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:28" ht="15.75">
       <c r="A115" s="12" t="s">
         <v>104</v>
       </c>
@@ -8303,7 +8309,7 @@
         <v>4200</v>
       </c>
     </row>
-    <row r="116" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:28" ht="15.75">
       <c r="A116" s="12" t="s">
         <v>105</v>
       </c>
@@ -8363,7 +8369,7 @@
         <v>2300</v>
       </c>
     </row>
-    <row r="117" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:28" ht="15.75">
       <c r="A117" s="12" t="s">
         <v>106</v>
       </c>
@@ -8423,7 +8429,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="118" spans="1:28" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:28" ht="25.5" customHeight="1">
       <c r="A118" s="12" t="s">
         <v>107</v>
       </c>
@@ -8487,7 +8493,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="119" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:28" ht="15.75">
       <c r="A119" s="12" t="s">
         <v>108</v>
       </c>
@@ -8547,7 +8553,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="120" spans="1:28" ht="19" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:28" ht="18">
       <c r="A120" s="12" t="s">
         <v>109</v>
       </c>
@@ -8605,7 +8611,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="121" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:28" ht="15.75">
       <c r="A121" s="12" t="s">
         <v>164</v>
       </c>
@@ -8665,7 +8671,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="122" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:28" ht="15.75">
       <c r="A122" s="12" t="s">
         <v>110</v>
       </c>
@@ -8725,7 +8731,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="123" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:28" ht="15.75">
       <c r="A123" s="12" t="s">
         <v>111</v>
       </c>
@@ -8785,7 +8791,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="124" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:28" ht="15.75">
       <c r="A124" s="12" t="s">
         <v>112</v>
       </c>
@@ -8845,7 +8851,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="125" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:28" ht="15.75">
       <c r="A125" s="12" t="s">
         <v>113</v>
       </c>
@@ -8905,7 +8911,7 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="126" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:28" ht="15.75">
       <c r="A126" s="12" t="s">
         <v>114</v>
       </c>
@@ -8965,7 +8971,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="127" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:28" ht="15.75">
       <c r="A127" s="12" t="s">
         <v>165</v>
       </c>
@@ -9023,7 +9029,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="128" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:28" ht="15.75">
       <c r="A128" s="12" t="s">
         <v>115</v>
       </c>
@@ -9073,7 +9079,7 @@
       <c r="AA128" s="8"/>
       <c r="AB128" s="8"/>
     </row>
-    <row r="129" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:28" ht="15.75">
       <c r="A129" s="12" t="s">
         <v>116</v>
       </c>
@@ -9123,7 +9129,7 @@
       <c r="AA129" s="17"/>
       <c r="AB129" s="17"/>
     </row>
-    <row r="130" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:28" ht="15.75">
       <c r="A130" s="12" t="s">
         <v>117</v>
       </c>
@@ -9199,7 +9205,7 @@
       <c r="AA130" s="17"/>
       <c r="AB130" s="17"/>
     </row>
-    <row r="131" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:28" ht="15.75">
       <c r="A131" s="12" t="s">
         <v>118</v>
       </c>
@@ -9253,7 +9259,7 @@
       <c r="AA131" s="8"/>
       <c r="AB131" s="8"/>
     </row>
-    <row r="132" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:28" ht="15.75">
       <c r="A132" s="21" t="s">
         <v>119</v>
       </c>
@@ -9313,7 +9319,7 @@
         <v>18.2</v>
       </c>
     </row>
-    <row r="133" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:28" ht="15.75">
       <c r="A133" s="21" t="s">
         <v>166</v>
       </c>
@@ -9373,7 +9379,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="134" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:28" ht="15.75">
       <c r="A134" s="21" t="s">
         <v>120</v>
       </c>
@@ -9433,7 +9439,7 @@
         <v>7.1</v>
       </c>
     </row>
-    <row r="135" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:28" ht="15.75">
       <c r="A135" s="21" t="s">
         <v>167</v>
       </c>
@@ -9493,7 +9499,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="136" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:28" ht="15.75">
       <c r="A136" s="21" t="s">
         <v>168</v>
       </c>
@@ -9543,7 +9549,7 @@
       <c r="AA136" s="8"/>
       <c r="AB136" s="8"/>
     </row>
-    <row r="137" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:28" ht="15.75">
       <c r="A137" s="21" t="s">
         <v>169</v>
       </c>
@@ -9603,7 +9609,7 @@
         <v>4.3</v>
       </c>
     </row>
-    <row r="138" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:28" ht="15.75">
       <c r="A138" s="21" t="s">
         <v>170</v>
       </c>
@@ -9653,7 +9659,7 @@
       <c r="AA138" s="17"/>
       <c r="AB138" s="17"/>
     </row>
-    <row r="139" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:28" ht="15.75">
       <c r="A139" s="21" t="s">
         <v>171</v>
       </c>
@@ -9703,7 +9709,7 @@
       <c r="AA139" s="17"/>
       <c r="AB139" s="17"/>
     </row>
-    <row r="140" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:28" ht="15.75">
       <c r="A140" s="21" t="s">
         <v>121</v>
       </c>
@@ -9753,7 +9759,7 @@
       <c r="AA140" s="8"/>
       <c r="AB140" s="17"/>
     </row>
-    <row r="141" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:28" ht="15.75">
       <c r="A141" s="12" t="s">
         <v>172</v>
       </c>
@@ -9803,7 +9809,7 @@
       <c r="AA141" s="17"/>
       <c r="AB141" s="17"/>
     </row>
-    <row r="142" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:28" ht="15.75">
       <c r="A142" s="12" t="s">
         <v>173</v>
       </c>
@@ -9863,7 +9869,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="143" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:28" ht="15.75">
       <c r="A143" s="12" t="s">
         <v>122</v>
       </c>
@@ -9923,7 +9929,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="144" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:28" ht="15.75">
       <c r="A144" s="12" t="s">
         <v>129</v>
       </c>
@@ -10007,7 +10013,7 @@
       </c>
       <c r="AB144" s="17"/>
     </row>
-    <row r="145" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:28" ht="15.75">
       <c r="A145" s="12" t="s">
         <v>123</v>
       </c>
@@ -10071,7 +10077,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:28" ht="15.75">
       <c r="A146" s="12" t="s">
         <v>124</v>
       </c>
@@ -10131,7 +10137,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="147" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:28" ht="15.75">
       <c r="A147" s="12" t="s">
         <v>125</v>
       </c>
@@ -10191,7 +10197,7 @@
         <v>34.700000000000003</v>
       </c>
     </row>
-    <row r="148" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:28" ht="15.75">
       <c r="A148" s="12" t="s">
         <v>126</v>
       </c>
@@ -10251,7 +10257,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="149" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:28" ht="15.75">
       <c r="A149" s="12" t="s">
         <v>133</v>
       </c>
@@ -10297,7 +10303,7 @@
       <c r="AA149" s="43"/>
       <c r="AB149" s="43"/>
     </row>
-    <row r="150" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:28" ht="15.75">
       <c r="A150" s="12" t="s">
         <v>135</v>
       </c>
@@ -10343,7 +10349,7 @@
       <c r="AA150" s="43"/>
       <c r="AB150" s="43"/>
     </row>
-    <row r="151" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:28" ht="15.75">
       <c r="A151" s="12" t="s">
         <v>134</v>
       </c>
@@ -10389,7 +10395,7 @@
       <c r="AA151" s="43"/>
       <c r="AB151" s="43"/>
     </row>
-    <row r="152" spans="1:28" ht="16" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:28" ht="15.75">
       <c r="A152" s="12" t="s">
         <v>136</v>
       </c>
@@ -10432,52 +10438,46 @@
       <c r="Z152" s="8">
         <v>106</v>
       </c>
-      <c r="AA152" s="43"/>
-      <c r="AB152" s="43"/>
-    </row>
-    <row r="153" spans="1:28" ht="16" x14ac:dyDescent="0.2">
-      <c r="A153" s="12" t="s">
+      <c r="AA152" s="48">
+        <v>103</v>
+      </c>
+      <c r="AB152" s="48">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="153" spans="1:28" ht="15.75">
+      <c r="A153" t="s">
         <v>174</v>
       </c>
-      <c r="B153" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C153" s="12">
+      <c r="B153" s="45" t="s">
+        <v>8</v>
+      </c>
+      <c r="C153" s="46">
         <v>3479</v>
       </c>
-      <c r="D153" s="12"/>
-      <c r="E153" s="12"/>
-      <c r="F153" s="12"/>
-      <c r="G153" s="12"/>
-      <c r="H153" s="12"/>
-      <c r="I153" s="12"/>
-      <c r="J153" s="12"/>
-      <c r="K153" s="12"/>
-      <c r="L153" s="12"/>
-      <c r="M153" s="12"/>
-      <c r="N153" s="12"/>
-      <c r="O153" s="12"/>
-      <c r="P153" s="12"/>
-      <c r="Q153" s="12"/>
-      <c r="R153" s="12"/>
-      <c r="S153" s="12"/>
-      <c r="T153" s="12"/>
-      <c r="U153" s="12"/>
-      <c r="V153" s="12"/>
-      <c r="W153" s="12">
+      <c r="W153" s="47">
         <v>225</v>
       </c>
-      <c r="X153" s="12">
+      <c r="X153" s="48">
         <v>81.7</v>
       </c>
-      <c r="Y153" s="12">
+      <c r="Y153" s="48">
         <v>106</v>
       </c>
-      <c r="Z153" s="12">
+      <c r="Z153" s="48">
         <v>95.4</v>
       </c>
-      <c r="AA153" s="12"/>
-      <c r="AB153" s="12"/>
+      <c r="AA153" s="48">
+        <v>86.4</v>
+      </c>
+      <c r="AB153" s="48">
+        <v>78.5</v>
+      </c>
+    </row>
+    <row r="154" spans="1:28">
+      <c r="X154" s="48"/>
+      <c r="Y154" s="48"/>
+      <c r="Z154" s="48"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10486,31 +10486,31 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1">
       <c r="A3" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1" ht="15.75">
       <c r="A4" t="s">
         <v>127</v>
       </c>
@@ -10522,12 +10522,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
